--- a/temp/ALP-2020.xlsx
+++ b/temp/ALP-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D5270-67D6-4D97-B126-4742F651D10F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D2C12-6FD8-4A7C-9D18-858D18D50549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
   <si>
     <t>Course Name</t>
   </si>
@@ -383,6 +383,15 @@
   <si>
     <t>per day</t>
   </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>hours/day</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
 </sst>
 </file>
 
@@ -394,10 +403,17 @@
     <numFmt numFmtId="166" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -758,160 +774,171 @@
   </borders>
   <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyFill="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="13" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="13" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="13" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Actors" xfId="4" xr:uid="{F29AF49B-AECA-4627-BA36-AD142BDCC4FF}"/>
@@ -947,7 +974,7 @@
     <cellStyle name="Title 3" xfId="24" xr:uid="{A2191916-F69B-4126-9A33-C1ADE48F76A0}"/>
     <cellStyle name="Title 4" xfId="27" xr:uid="{A857FE3C-F4FC-48BB-85F4-E88AEBE74528}"/>
   </cellStyles>
-  <dxfs count="263">
+  <dxfs count="269">
     <dxf>
       <fill>
         <patternFill>
@@ -1911,6 +1938,48 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2821,17 +2890,17 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Movie List" pivot="0" count="3" xr9:uid="{4BA40043-EF4C-4ACF-9629-DA3D423964A3}">
-      <tableStyleElement type="headerRow" dxfId="262"/>
-      <tableStyleElement type="firstRowStripe" dxfId="261"/>
-      <tableStyleElement type="secondRowStripe" dxfId="260"/>
+      <tableStyleElement type="headerRow" dxfId="268"/>
+      <tableStyleElement type="firstRowStripe" dxfId="267"/>
+      <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
     <tableStyle name="To Do List" pivot="0" count="3" xr9:uid="{0275F2EF-7ED0-40A8-B1C2-7D29C94D149D}">
-      <tableStyleElement type="wholeTable" dxfId="259"/>
-      <tableStyleElement type="headerRow" dxfId="258"/>
-      <tableStyleElement type="secondRowStripe" dxfId="257"/>
+      <tableStyleElement type="wholeTable" dxfId="265"/>
+      <tableStyleElement type="headerRow" dxfId="264"/>
+      <tableStyleElement type="secondRowStripe" dxfId="263"/>
     </tableStyle>
     <tableStyle name="To-Do List" pivot="0" count="1" xr9:uid="{F3904ECC-67AD-4EB4-B6B9-03C65BDB7C8D}">
-      <tableStyleElement type="wholeTable" dxfId="256"/>
+      <tableStyleElement type="wholeTable" dxfId="262"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3147,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA6F90D-DFE1-4909-AF9B-74DBF611A6AA}">
-  <dimension ref="A1:AM377"/>
+  <dimension ref="A1:AO377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3166,11 +3235,14 @@
     <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="84.5546875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" customWidth="1"/>
+    <col min="17" max="17" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="16" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -3207,18 +3279,17 @@
       <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="20">
-        <f>variables!B2</f>
-        <v>4</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -3239,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="18">
-        <f t="shared" ref="G2:G21" si="1">CEILING(F2/$N$1,1)</f>
+        <f t="shared" ref="G2:G21" si="1">CEILING(F2/$Q$4,1)</f>
         <v>1</v>
       </c>
       <c r="H2" s="3">
@@ -3255,66 +3326,127 @@
       <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="15">
+        <v>100</v>
+      </c>
+      <c r="N2" s="18">
+        <v>1</v>
+      </c>
+      <c r="O2" s="20">
         <f>CEILING(D2/G2,1)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="29">
-        <v>35</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" s="28">
+        <v>50</v>
+      </c>
+      <c r="D3" s="28">
         <v>453</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>5</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <f t="shared" si="0"/>
         <v>37.75</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>44013</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="32">
         <f t="shared" si="2"/>
         <v>44022</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <f t="shared" ref="J3:J10" si="3">100*C3/D3</f>
-        <v>7.7262693156732896</v>
-      </c>
-      <c r="K3" s="30" t="s">
+        <v>11.037527593818984</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="L3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="20">
-        <f t="shared" ref="M3:M20" si="4">CEILING(D3/G3,1)</f>
+      <c r="M3" s="33">
+        <f>100*N3/O3</f>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="N3" s="38">
+        <v>4</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O20" si="4">CEILING(D3/G3,1)</f>
         <v>46</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
       <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="21"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37"/>
+      <c r="AO3" s="37"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -3356,16 +3488,50 @@
       <c r="L4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="26">
+        <f t="shared" ref="M4:M20" si="6">100*N4/O4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
       <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" s="41">
+        <f>variables!B2</f>
+        <v>4</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="21"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -3407,16 +3573,45 @@
       <c r="L5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="39">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -3458,16 +3653,45 @@
       <c r="L6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -3509,16 +3733,45 @@
       <c r="L7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -3558,16 +3811,45 @@
         <v>53</v>
       </c>
       <c r="L8" s="27"/>
-      <c r="M8" s="20">
+      <c r="M8" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="39">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -3607,16 +3889,45 @@
         <v>53</v>
       </c>
       <c r="L9" s="27"/>
-      <c r="M9" s="20">
+      <c r="M9" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="39">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -3656,16 +3967,45 @@
         <v>53</v>
       </c>
       <c r="L10" s="27"/>
-      <c r="M10" s="20">
+      <c r="M10" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="39">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
+      <c r="AO10" s="37"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -3698,23 +4038,52 @@
         <v>44050</v>
       </c>
       <c r="J11" s="26">
-        <f t="shared" ref="J11:J20" si="6">100*C11/D11</f>
+        <f t="shared" ref="J11:J20" si="7">100*C11/D11</f>
         <v>0</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="27"/>
-      <c r="M11" s="20">
+      <c r="M11" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="39">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="37"/>
+      <c r="AO11" s="37"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -3747,23 +4116,52 @@
         <v>44051</v>
       </c>
       <c r="J12" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="27"/>
+      <c r="M12" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="20">
+      <c r="N12" s="39">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AM12" s="37"/>
+      <c r="AN12" s="37"/>
+      <c r="AO12" s="37"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -3796,23 +4194,52 @@
         <v>44052</v>
       </c>
       <c r="J13" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="27"/>
+      <c r="M13" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="20">
+      <c r="N13" s="39">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -3845,23 +4272,52 @@
         <v>44061</v>
       </c>
       <c r="J14" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="20">
+      <c r="N14" s="39">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AM14" s="37"/>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -3894,23 +4350,52 @@
         <v>44062</v>
       </c>
       <c r="J15" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="20">
+      <c r="N15" s="39">
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -3943,23 +4428,52 @@
         <v>44064</v>
       </c>
       <c r="J16" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="20">
+      <c r="N16" s="39">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -3992,25 +4506,54 @@
         <v>44074</v>
       </c>
       <c r="J17" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="20">
+      <c r="N17" s="39">
+        <v>0</v>
+      </c>
+      <c r="O17" s="20">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -4043,25 +4586,54 @@
         <v>44082</v>
       </c>
       <c r="J18" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="20">
+      <c r="N18" s="39">
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -4094,23 +4666,52 @@
         <v>44101</v>
       </c>
       <c r="J19" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="20">
+      <c r="N19" s="22">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -4143,25 +4744,54 @@
         <v>44107</v>
       </c>
       <c r="J20" s="26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K20" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="20">
+      <c r="N20" s="39">
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+    </row>
+    <row r="21" spans="1:41" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4181,12 +4811,36 @@
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
@@ -4226,8 +4880,10 @@
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
       <c r="AM22" s="21"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -4267,8 +4923,10 @@
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -4308,8 +4966,10 @@
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
       <c r="AM24" s="21"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -4349,8 +5009,10 @@
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN25" s="21"/>
+      <c r="AO25" s="21"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -4390,8 +5052,10 @@
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN26" s="21"/>
+      <c r="AO26" s="21"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -4431,8 +5095,10 @@
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN27" s="21"/>
+      <c r="AO27" s="21"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -4472,8 +5138,10 @@
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -4513,8 +5181,10 @@
       <c r="AK29" s="21"/>
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -4554,8 +5224,10 @@
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -4595,8 +5267,10 @@
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -4636,8 +5310,10 @@
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4677,8 +5353,10 @@
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4718,8 +5396,10 @@
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN34" s="21"/>
+      <c r="AO34" s="21"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -4759,8 +5439,10 @@
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -4800,8 +5482,10 @@
       <c r="AK36" s="21"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -4841,8 +5525,10 @@
       <c r="AK37" s="21"/>
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -4882,8 +5568,10 @@
       <c r="AK38" s="21"/>
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -4923,8 +5611,10 @@
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -4964,8 +5654,10 @@
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
       <c r="AM40" s="21"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -5005,8 +5697,10 @@
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN41" s="21"/>
+      <c r="AO41" s="21"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -5046,8 +5740,10 @@
       <c r="AK42" s="21"/>
       <c r="AL42" s="21"/>
       <c r="AM42" s="21"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN42" s="21"/>
+      <c r="AO42" s="21"/>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -5087,8 +5783,10 @@
       <c r="AK43" s="21"/>
       <c r="AL43" s="21"/>
       <c r="AM43" s="21"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN43" s="21"/>
+      <c r="AO43" s="21"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -5128,8 +5826,10 @@
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
       <c r="AM44" s="21"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -5169,8 +5869,10 @@
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
       <c r="AM45" s="21"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN45" s="21"/>
+      <c r="AO45" s="21"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -5210,8 +5912,10 @@
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
       <c r="AM46" s="21"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN46" s="21"/>
+      <c r="AO46" s="21"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -5251,8 +5955,10 @@
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
       <c r="AM47" s="21"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -5292,8 +5998,10 @@
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
       <c r="AM48" s="21"/>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN48" s="21"/>
+      <c r="AO48" s="21"/>
+    </row>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -5333,8 +6041,10 @@
       <c r="AK49" s="21"/>
       <c r="AL49" s="21"/>
       <c r="AM49" s="21"/>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN49" s="21"/>
+      <c r="AO49" s="21"/>
+    </row>
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -5374,8 +6084,10 @@
       <c r="AK50" s="21"/>
       <c r="AL50" s="21"/>
       <c r="AM50" s="21"/>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN50" s="21"/>
+      <c r="AO50" s="21"/>
+    </row>
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -5415,8 +6127,10 @@
       <c r="AK51" s="21"/>
       <c r="AL51" s="21"/>
       <c r="AM51" s="21"/>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -5456,8 +6170,10 @@
       <c r="AK52" s="21"/>
       <c r="AL52" s="21"/>
       <c r="AM52" s="21"/>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN52" s="21"/>
+      <c r="AO52" s="21"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -5497,8 +6213,10 @@
       <c r="AK53" s="21"/>
       <c r="AL53" s="21"/>
       <c r="AM53" s="21"/>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN53" s="21"/>
+      <c r="AO53" s="21"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -5538,8 +6256,10 @@
       <c r="AK54" s="21"/>
       <c r="AL54" s="21"/>
       <c r="AM54" s="21"/>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN54" s="21"/>
+      <c r="AO54" s="21"/>
+    </row>
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -5579,8 +6299,10 @@
       <c r="AK55" s="21"/>
       <c r="AL55" s="21"/>
       <c r="AM55" s="21"/>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN55" s="21"/>
+      <c r="AO55" s="21"/>
+    </row>
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -5620,8 +6342,10 @@
       <c r="AK56" s="21"/>
       <c r="AL56" s="21"/>
       <c r="AM56" s="21"/>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN56" s="21"/>
+      <c r="AO56" s="21"/>
+    </row>
+    <row r="57" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -5661,8 +6385,10 @@
       <c r="AK57" s="21"/>
       <c r="AL57" s="21"/>
       <c r="AM57" s="21"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN57" s="21"/>
+      <c r="AO57" s="21"/>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -5702,8 +6428,10 @@
       <c r="AK58" s="21"/>
       <c r="AL58" s="21"/>
       <c r="AM58" s="21"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN58" s="21"/>
+      <c r="AO58" s="21"/>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -5743,8 +6471,10 @@
       <c r="AK59" s="21"/>
       <c r="AL59" s="21"/>
       <c r="AM59" s="21"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN59" s="21"/>
+      <c r="AO59" s="21"/>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -5784,8 +6514,10 @@
       <c r="AK60" s="21"/>
       <c r="AL60" s="21"/>
       <c r="AM60" s="21"/>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN60" s="21"/>
+      <c r="AO60" s="21"/>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -5825,8 +6557,10 @@
       <c r="AK61" s="21"/>
       <c r="AL61" s="21"/>
       <c r="AM61" s="21"/>
-    </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN61" s="21"/>
+      <c r="AO61" s="21"/>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -5866,8 +6600,10 @@
       <c r="AK62" s="21"/>
       <c r="AL62" s="21"/>
       <c r="AM62" s="21"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN62" s="21"/>
+      <c r="AO62" s="21"/>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -5907,8 +6643,10 @@
       <c r="AK63" s="21"/>
       <c r="AL63" s="21"/>
       <c r="AM63" s="21"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="21"/>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -5948,8 +6686,10 @@
       <c r="AK64" s="21"/>
       <c r="AL64" s="21"/>
       <c r="AM64" s="21"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="21"/>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -5989,8 +6729,10 @@
       <c r="AK65" s="21"/>
       <c r="AL65" s="21"/>
       <c r="AM65" s="21"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -6030,8 +6772,10 @@
       <c r="AK66" s="21"/>
       <c r="AL66" s="21"/>
       <c r="AM66" s="21"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -6071,8 +6815,10 @@
       <c r="AK67" s="21"/>
       <c r="AL67" s="21"/>
       <c r="AM67" s="21"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN67" s="21"/>
+      <c r="AO67" s="21"/>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -6112,8 +6858,10 @@
       <c r="AK68" s="21"/>
       <c r="AL68" s="21"/>
       <c r="AM68" s="21"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN68" s="21"/>
+      <c r="AO68" s="21"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -6153,8 +6901,10 @@
       <c r="AK69" s="21"/>
       <c r="AL69" s="21"/>
       <c r="AM69" s="21"/>
-    </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN69" s="21"/>
+      <c r="AO69" s="21"/>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -6194,8 +6944,10 @@
       <c r="AK70" s="21"/>
       <c r="AL70" s="21"/>
       <c r="AM70" s="21"/>
-    </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN70" s="21"/>
+      <c r="AO70" s="21"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -6235,8 +6987,10 @@
       <c r="AK71" s="21"/>
       <c r="AL71" s="21"/>
       <c r="AM71" s="21"/>
-    </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN71" s="21"/>
+      <c r="AO71" s="21"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -6276,8 +7030,10 @@
       <c r="AK72" s="21"/>
       <c r="AL72" s="21"/>
       <c r="AM72" s="21"/>
-    </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN72" s="21"/>
+      <c r="AO72" s="21"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -6317,8 +7073,10 @@
       <c r="AK73" s="21"/>
       <c r="AL73" s="21"/>
       <c r="AM73" s="21"/>
-    </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -6358,8 +7116,10 @@
       <c r="AK74" s="21"/>
       <c r="AL74" s="21"/>
       <c r="AM74" s="21"/>
-    </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="21"/>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -6399,8 +7159,10 @@
       <c r="AK75" s="21"/>
       <c r="AL75" s="21"/>
       <c r="AM75" s="21"/>
-    </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -6440,8 +7202,10 @@
       <c r="AK76" s="21"/>
       <c r="AL76" s="21"/>
       <c r="AM76" s="21"/>
-    </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN76" s="21"/>
+      <c r="AO76" s="21"/>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -6481,8 +7245,10 @@
       <c r="AK77" s="21"/>
       <c r="AL77" s="21"/>
       <c r="AM77" s="21"/>
-    </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN77" s="21"/>
+      <c r="AO77" s="21"/>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -6522,8 +7288,10 @@
       <c r="AK78" s="21"/>
       <c r="AL78" s="21"/>
       <c r="AM78" s="21"/>
-    </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN78" s="21"/>
+      <c r="AO78" s="21"/>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -6563,8 +7331,10 @@
       <c r="AK79" s="21"/>
       <c r="AL79" s="21"/>
       <c r="AM79" s="21"/>
-    </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN79" s="21"/>
+      <c r="AO79" s="21"/>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -6604,8 +7374,10 @@
       <c r="AK80" s="21"/>
       <c r="AL80" s="21"/>
       <c r="AM80" s="21"/>
-    </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN80" s="21"/>
+      <c r="AO80" s="21"/>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -6645,8 +7417,10 @@
       <c r="AK81" s="21"/>
       <c r="AL81" s="21"/>
       <c r="AM81" s="21"/>
-    </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN81" s="21"/>
+      <c r="AO81" s="21"/>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -6686,8 +7460,10 @@
       <c r="AK82" s="21"/>
       <c r="AL82" s="21"/>
       <c r="AM82" s="21"/>
-    </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN82" s="21"/>
+      <c r="AO82" s="21"/>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -6727,8 +7503,10 @@
       <c r="AK83" s="21"/>
       <c r="AL83" s="21"/>
       <c r="AM83" s="21"/>
-    </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN83" s="21"/>
+      <c r="AO83" s="21"/>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -6768,8 +7546,10 @@
       <c r="AK84" s="21"/>
       <c r="AL84" s="21"/>
       <c r="AM84" s="21"/>
-    </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -6809,8 +7589,10 @@
       <c r="AK85" s="21"/>
       <c r="AL85" s="21"/>
       <c r="AM85" s="21"/>
-    </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN85" s="21"/>
+      <c r="AO85" s="21"/>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -6850,8 +7632,10 @@
       <c r="AK86" s="21"/>
       <c r="AL86" s="21"/>
       <c r="AM86" s="21"/>
-    </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN86" s="21"/>
+      <c r="AO86" s="21"/>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -6891,8 +7675,10 @@
       <c r="AK87" s="21"/>
       <c r="AL87" s="21"/>
       <c r="AM87" s="21"/>
-    </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN87" s="21"/>
+      <c r="AO87" s="21"/>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -6932,8 +7718,10 @@
       <c r="AK88" s="21"/>
       <c r="AL88" s="21"/>
       <c r="AM88" s="21"/>
-    </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN88" s="21"/>
+      <c r="AO88" s="21"/>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -6973,8 +7761,10 @@
       <c r="AK89" s="21"/>
       <c r="AL89" s="21"/>
       <c r="AM89" s="21"/>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN89" s="21"/>
+      <c r="AO89" s="21"/>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -7014,8 +7804,10 @@
       <c r="AK90" s="21"/>
       <c r="AL90" s="21"/>
       <c r="AM90" s="21"/>
-    </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN90" s="21"/>
+      <c r="AO90" s="21"/>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -7055,8 +7847,10 @@
       <c r="AK91" s="21"/>
       <c r="AL91" s="21"/>
       <c r="AM91" s="21"/>
-    </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN91" s="21"/>
+      <c r="AO91" s="21"/>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -7096,8 +7890,10 @@
       <c r="AK92" s="21"/>
       <c r="AL92" s="21"/>
       <c r="AM92" s="21"/>
-    </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -7137,8 +7933,10 @@
       <c r="AK93" s="21"/>
       <c r="AL93" s="21"/>
       <c r="AM93" s="21"/>
-    </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN93" s="21"/>
+      <c r="AO93" s="21"/>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -7178,8 +7976,10 @@
       <c r="AK94" s="21"/>
       <c r="AL94" s="21"/>
       <c r="AM94" s="21"/>
-    </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN94" s="21"/>
+      <c r="AO94" s="21"/>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -7219,8 +8019,10 @@
       <c r="AK95" s="21"/>
       <c r="AL95" s="21"/>
       <c r="AM95" s="21"/>
-    </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN95" s="21"/>
+      <c r="AO95" s="21"/>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -7260,8 +8062,10 @@
       <c r="AK96" s="21"/>
       <c r="AL96" s="21"/>
       <c r="AM96" s="21"/>
-    </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN96" s="21"/>
+      <c r="AO96" s="21"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -7301,8 +8105,10 @@
       <c r="AK97" s="21"/>
       <c r="AL97" s="21"/>
       <c r="AM97" s="21"/>
-    </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN97" s="21"/>
+      <c r="AO97" s="21"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -7342,8 +8148,10 @@
       <c r="AK98" s="21"/>
       <c r="AL98" s="21"/>
       <c r="AM98" s="21"/>
-    </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN98" s="21"/>
+      <c r="AO98" s="21"/>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -7383,8 +8191,10 @@
       <c r="AK99" s="21"/>
       <c r="AL99" s="21"/>
       <c r="AM99" s="21"/>
-    </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN99" s="21"/>
+      <c r="AO99" s="21"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -7424,8 +8234,10 @@
       <c r="AK100" s="21"/>
       <c r="AL100" s="21"/>
       <c r="AM100" s="21"/>
-    </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN100" s="21"/>
+      <c r="AO100" s="21"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -7465,8 +8277,10 @@
       <c r="AK101" s="21"/>
       <c r="AL101" s="21"/>
       <c r="AM101" s="21"/>
-    </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN101" s="21"/>
+      <c r="AO101" s="21"/>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -7506,8 +8320,10 @@
       <c r="AK102" s="21"/>
       <c r="AL102" s="21"/>
       <c r="AM102" s="21"/>
-    </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN102" s="21"/>
+      <c r="AO102" s="21"/>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -7547,8 +8363,10 @@
       <c r="AK103" s="21"/>
       <c r="AL103" s="21"/>
       <c r="AM103" s="21"/>
-    </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -7588,8 +8406,10 @@
       <c r="AK104" s="21"/>
       <c r="AL104" s="21"/>
       <c r="AM104" s="21"/>
-    </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN104" s="21"/>
+      <c r="AO104" s="21"/>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -7629,8 +8449,10 @@
       <c r="AK105" s="21"/>
       <c r="AL105" s="21"/>
       <c r="AM105" s="21"/>
-    </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN105" s="21"/>
+      <c r="AO105" s="21"/>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -7670,8 +8492,10 @@
       <c r="AK106" s="21"/>
       <c r="AL106" s="21"/>
       <c r="AM106" s="21"/>
-    </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN106" s="21"/>
+      <c r="AO106" s="21"/>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -7711,8 +8535,10 @@
       <c r="AK107" s="21"/>
       <c r="AL107" s="21"/>
       <c r="AM107" s="21"/>
-    </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN107" s="21"/>
+      <c r="AO107" s="21"/>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -7752,8 +8578,10 @@
       <c r="AK108" s="21"/>
       <c r="AL108" s="21"/>
       <c r="AM108" s="21"/>
-    </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN108" s="21"/>
+      <c r="AO108" s="21"/>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -7793,8 +8621,10 @@
       <c r="AK109" s="21"/>
       <c r="AL109" s="21"/>
       <c r="AM109" s="21"/>
-    </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN109" s="21"/>
+      <c r="AO109" s="21"/>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -7834,8 +8664,10 @@
       <c r="AK110" s="21"/>
       <c r="AL110" s="21"/>
       <c r="AM110" s="21"/>
-    </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN110" s="21"/>
+      <c r="AO110" s="21"/>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -7875,8 +8707,10 @@
       <c r="AK111" s="21"/>
       <c r="AL111" s="21"/>
       <c r="AM111" s="21"/>
-    </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN111" s="21"/>
+      <c r="AO111" s="21"/>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -7916,8 +8750,10 @@
       <c r="AK112" s="21"/>
       <c r="AL112" s="21"/>
       <c r="AM112" s="21"/>
-    </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN112" s="21"/>
+      <c r="AO112" s="21"/>
+    </row>
+    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -7957,8 +8793,10 @@
       <c r="AK113" s="21"/>
       <c r="AL113" s="21"/>
       <c r="AM113" s="21"/>
-    </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN113" s="21"/>
+      <c r="AO113" s="21"/>
+    </row>
+    <row r="114" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -7998,8 +8836,10 @@
       <c r="AK114" s="21"/>
       <c r="AL114" s="21"/>
       <c r="AM114" s="21"/>
-    </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN114" s="21"/>
+      <c r="AO114" s="21"/>
+    </row>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -8039,8 +8879,10 @@
       <c r="AK115" s="21"/>
       <c r="AL115" s="21"/>
       <c r="AM115" s="21"/>
-    </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN115" s="21"/>
+      <c r="AO115" s="21"/>
+    </row>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -8080,8 +8922,10 @@
       <c r="AK116" s="21"/>
       <c r="AL116" s="21"/>
       <c r="AM116" s="21"/>
-    </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN116" s="21"/>
+      <c r="AO116" s="21"/>
+    </row>
+    <row r="117" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -8121,8 +8965,10 @@
       <c r="AK117" s="21"/>
       <c r="AL117" s="21"/>
       <c r="AM117" s="21"/>
-    </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN117" s="21"/>
+      <c r="AO117" s="21"/>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -8162,8 +9008,10 @@
       <c r="AK118" s="21"/>
       <c r="AL118" s="21"/>
       <c r="AM118" s="21"/>
-    </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN118" s="21"/>
+      <c r="AO118" s="21"/>
+    </row>
+    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -8203,8 +9051,10 @@
       <c r="AK119" s="21"/>
       <c r="AL119" s="21"/>
       <c r="AM119" s="21"/>
-    </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN119" s="21"/>
+      <c r="AO119" s="21"/>
+    </row>
+    <row r="120" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -8244,8 +9094,10 @@
       <c r="AK120" s="21"/>
       <c r="AL120" s="21"/>
       <c r="AM120" s="21"/>
-    </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN120" s="21"/>
+      <c r="AO120" s="21"/>
+    </row>
+    <row r="121" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -8285,8 +9137,10 @@
       <c r="AK121" s="21"/>
       <c r="AL121" s="21"/>
       <c r="AM121" s="21"/>
-    </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN121" s="21"/>
+      <c r="AO121" s="21"/>
+    </row>
+    <row r="122" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -8326,8 +9180,10 @@
       <c r="AK122" s="21"/>
       <c r="AL122" s="21"/>
       <c r="AM122" s="21"/>
-    </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN122" s="21"/>
+      <c r="AO122" s="21"/>
+    </row>
+    <row r="123" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -8367,8 +9223,10 @@
       <c r="AK123" s="21"/>
       <c r="AL123" s="21"/>
       <c r="AM123" s="21"/>
-    </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN123" s="21"/>
+      <c r="AO123" s="21"/>
+    </row>
+    <row r="124" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -8408,8 +9266,10 @@
       <c r="AK124" s="21"/>
       <c r="AL124" s="21"/>
       <c r="AM124" s="21"/>
-    </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN124" s="21"/>
+      <c r="AO124" s="21"/>
+    </row>
+    <row r="125" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -8449,8 +9309,10 @@
       <c r="AK125" s="21"/>
       <c r="AL125" s="21"/>
       <c r="AM125" s="21"/>
-    </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN125" s="21"/>
+      <c r="AO125" s="21"/>
+    </row>
+    <row r="126" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -8490,8 +9352,10 @@
       <c r="AK126" s="21"/>
       <c r="AL126" s="21"/>
       <c r="AM126" s="21"/>
-    </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN126" s="21"/>
+      <c r="AO126" s="21"/>
+    </row>
+    <row r="127" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -8531,8 +9395,10 @@
       <c r="AK127" s="21"/>
       <c r="AL127" s="21"/>
       <c r="AM127" s="21"/>
-    </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN127" s="21"/>
+      <c r="AO127" s="21"/>
+    </row>
+    <row r="128" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -8572,8 +9438,10 @@
       <c r="AK128" s="21"/>
       <c r="AL128" s="21"/>
       <c r="AM128" s="21"/>
-    </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN128" s="21"/>
+      <c r="AO128" s="21"/>
+    </row>
+    <row r="129" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -8613,8 +9481,10 @@
       <c r="AK129" s="21"/>
       <c r="AL129" s="21"/>
       <c r="AM129" s="21"/>
-    </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN129" s="21"/>
+      <c r="AO129" s="21"/>
+    </row>
+    <row r="130" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -8654,8 +9524,10 @@
       <c r="AK130" s="21"/>
       <c r="AL130" s="21"/>
       <c r="AM130" s="21"/>
-    </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN130" s="21"/>
+      <c r="AO130" s="21"/>
+    </row>
+    <row r="131" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -8695,8 +9567,10 @@
       <c r="AK131" s="21"/>
       <c r="AL131" s="21"/>
       <c r="AM131" s="21"/>
-    </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN131" s="21"/>
+      <c r="AO131" s="21"/>
+    </row>
+    <row r="132" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -8736,8 +9610,10 @@
       <c r="AK132" s="21"/>
       <c r="AL132" s="21"/>
       <c r="AM132" s="21"/>
-    </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN132" s="21"/>
+      <c r="AO132" s="21"/>
+    </row>
+    <row r="133" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -8777,8 +9653,10 @@
       <c r="AK133" s="21"/>
       <c r="AL133" s="21"/>
       <c r="AM133" s="21"/>
-    </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN133" s="21"/>
+      <c r="AO133" s="21"/>
+    </row>
+    <row r="134" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -8818,8 +9696,10 @@
       <c r="AK134" s="21"/>
       <c r="AL134" s="21"/>
       <c r="AM134" s="21"/>
-    </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN134" s="21"/>
+      <c r="AO134" s="21"/>
+    </row>
+    <row r="135" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -8859,8 +9739,10 @@
       <c r="AK135" s="21"/>
       <c r="AL135" s="21"/>
       <c r="AM135" s="21"/>
-    </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN135" s="21"/>
+      <c r="AO135" s="21"/>
+    </row>
+    <row r="136" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -8900,8 +9782,10 @@
       <c r="AK136" s="21"/>
       <c r="AL136" s="21"/>
       <c r="AM136" s="21"/>
-    </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN136" s="21"/>
+      <c r="AO136" s="21"/>
+    </row>
+    <row r="137" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -8941,8 +9825,10 @@
       <c r="AK137" s="21"/>
       <c r="AL137" s="21"/>
       <c r="AM137" s="21"/>
-    </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN137" s="21"/>
+      <c r="AO137" s="21"/>
+    </row>
+    <row r="138" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -8982,8 +9868,10 @@
       <c r="AK138" s="21"/>
       <c r="AL138" s="21"/>
       <c r="AM138" s="21"/>
-    </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN138" s="21"/>
+      <c r="AO138" s="21"/>
+    </row>
+    <row r="139" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -9023,8 +9911,10 @@
       <c r="AK139" s="21"/>
       <c r="AL139" s="21"/>
       <c r="AM139" s="21"/>
-    </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN139" s="21"/>
+      <c r="AO139" s="21"/>
+    </row>
+    <row r="140" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -9064,8 +9954,10 @@
       <c r="AK140" s="21"/>
       <c r="AL140" s="21"/>
       <c r="AM140" s="21"/>
-    </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN140" s="21"/>
+      <c r="AO140" s="21"/>
+    </row>
+    <row r="141" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -9105,8 +9997,10 @@
       <c r="AK141" s="21"/>
       <c r="AL141" s="21"/>
       <c r="AM141" s="21"/>
-    </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN141" s="21"/>
+      <c r="AO141" s="21"/>
+    </row>
+    <row r="142" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -9146,8 +10040,10 @@
       <c r="AK142" s="21"/>
       <c r="AL142" s="21"/>
       <c r="AM142" s="21"/>
-    </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN142" s="21"/>
+      <c r="AO142" s="21"/>
+    </row>
+    <row r="143" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -9187,8 +10083,10 @@
       <c r="AK143" s="21"/>
       <c r="AL143" s="21"/>
       <c r="AM143" s="21"/>
-    </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN143" s="21"/>
+      <c r="AO143" s="21"/>
+    </row>
+    <row r="144" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -9228,8 +10126,10 @@
       <c r="AK144" s="21"/>
       <c r="AL144" s="21"/>
       <c r="AM144" s="21"/>
-    </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN144" s="21"/>
+      <c r="AO144" s="21"/>
+    </row>
+    <row r="145" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -9269,8 +10169,10 @@
       <c r="AK145" s="21"/>
       <c r="AL145" s="21"/>
       <c r="AM145" s="21"/>
-    </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN145" s="21"/>
+      <c r="AO145" s="21"/>
+    </row>
+    <row r="146" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -9310,8 +10212,10 @@
       <c r="AK146" s="21"/>
       <c r="AL146" s="21"/>
       <c r="AM146" s="21"/>
-    </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN146" s="21"/>
+      <c r="AO146" s="21"/>
+    </row>
+    <row r="147" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -9351,8 +10255,10 @@
       <c r="AK147" s="21"/>
       <c r="AL147" s="21"/>
       <c r="AM147" s="21"/>
-    </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN147" s="21"/>
+      <c r="AO147" s="21"/>
+    </row>
+    <row r="148" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -9392,8 +10298,10 @@
       <c r="AK148" s="21"/>
       <c r="AL148" s="21"/>
       <c r="AM148" s="21"/>
-    </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN148" s="21"/>
+      <c r="AO148" s="21"/>
+    </row>
+    <row r="149" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -9433,8 +10341,10 @@
       <c r="AK149" s="21"/>
       <c r="AL149" s="21"/>
       <c r="AM149" s="21"/>
-    </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN149" s="21"/>
+      <c r="AO149" s="21"/>
+    </row>
+    <row r="150" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -9474,8 +10384,10 @@
       <c r="AK150" s="21"/>
       <c r="AL150" s="21"/>
       <c r="AM150" s="21"/>
-    </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN150" s="21"/>
+      <c r="AO150" s="21"/>
+    </row>
+    <row r="151" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -9515,8 +10427,10 @@
       <c r="AK151" s="21"/>
       <c r="AL151" s="21"/>
       <c r="AM151" s="21"/>
-    </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN151" s="21"/>
+      <c r="AO151" s="21"/>
+    </row>
+    <row r="152" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -9556,8 +10470,10 @@
       <c r="AK152" s="21"/>
       <c r="AL152" s="21"/>
       <c r="AM152" s="21"/>
-    </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN152" s="21"/>
+      <c r="AO152" s="21"/>
+    </row>
+    <row r="153" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -9597,8 +10513,10 @@
       <c r="AK153" s="21"/>
       <c r="AL153" s="21"/>
       <c r="AM153" s="21"/>
-    </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN153" s="21"/>
+      <c r="AO153" s="21"/>
+    </row>
+    <row r="154" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -9638,8 +10556,10 @@
       <c r="AK154" s="21"/>
       <c r="AL154" s="21"/>
       <c r="AM154" s="21"/>
-    </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN154" s="21"/>
+      <c r="AO154" s="21"/>
+    </row>
+    <row r="155" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -9679,8 +10599,10 @@
       <c r="AK155" s="21"/>
       <c r="AL155" s="21"/>
       <c r="AM155" s="21"/>
-    </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN155" s="21"/>
+      <c r="AO155" s="21"/>
+    </row>
+    <row r="156" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -9720,8 +10642,10 @@
       <c r="AK156" s="21"/>
       <c r="AL156" s="21"/>
       <c r="AM156" s="21"/>
-    </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN156" s="21"/>
+      <c r="AO156" s="21"/>
+    </row>
+    <row r="157" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -9761,8 +10685,10 @@
       <c r="AK157" s="21"/>
       <c r="AL157" s="21"/>
       <c r="AM157" s="21"/>
-    </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN157" s="21"/>
+      <c r="AO157" s="21"/>
+    </row>
+    <row r="158" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -9802,8 +10728,10 @@
       <c r="AK158" s="21"/>
       <c r="AL158" s="21"/>
       <c r="AM158" s="21"/>
-    </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN158" s="21"/>
+      <c r="AO158" s="21"/>
+    </row>
+    <row r="159" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -9843,8 +10771,10 @@
       <c r="AK159" s="21"/>
       <c r="AL159" s="21"/>
       <c r="AM159" s="21"/>
-    </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN159" s="21"/>
+      <c r="AO159" s="21"/>
+    </row>
+    <row r="160" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -9884,8 +10814,10 @@
       <c r="AK160" s="21"/>
       <c r="AL160" s="21"/>
       <c r="AM160" s="21"/>
-    </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN160" s="21"/>
+      <c r="AO160" s="21"/>
+    </row>
+    <row r="161" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -9925,8 +10857,10 @@
       <c r="AK161" s="21"/>
       <c r="AL161" s="21"/>
       <c r="AM161" s="21"/>
-    </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN161" s="21"/>
+      <c r="AO161" s="21"/>
+    </row>
+    <row r="162" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -9966,8 +10900,10 @@
       <c r="AK162" s="21"/>
       <c r="AL162" s="21"/>
       <c r="AM162" s="21"/>
-    </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN162" s="21"/>
+      <c r="AO162" s="21"/>
+    </row>
+    <row r="163" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -10007,8 +10943,10 @@
       <c r="AK163" s="21"/>
       <c r="AL163" s="21"/>
       <c r="AM163" s="21"/>
-    </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN163" s="21"/>
+      <c r="AO163" s="21"/>
+    </row>
+    <row r="164" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -10048,8 +10986,10 @@
       <c r="AK164" s="21"/>
       <c r="AL164" s="21"/>
       <c r="AM164" s="21"/>
-    </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN164" s="21"/>
+      <c r="AO164" s="21"/>
+    </row>
+    <row r="165" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -10089,8 +11029,10 @@
       <c r="AK165" s="21"/>
       <c r="AL165" s="21"/>
       <c r="AM165" s="21"/>
-    </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN165" s="21"/>
+      <c r="AO165" s="21"/>
+    </row>
+    <row r="166" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -10130,8 +11072,10 @@
       <c r="AK166" s="21"/>
       <c r="AL166" s="21"/>
       <c r="AM166" s="21"/>
-    </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN166" s="21"/>
+      <c r="AO166" s="21"/>
+    </row>
+    <row r="167" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -10171,8 +11115,10 @@
       <c r="AK167" s="21"/>
       <c r="AL167" s="21"/>
       <c r="AM167" s="21"/>
-    </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN167" s="21"/>
+      <c r="AO167" s="21"/>
+    </row>
+    <row r="168" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -10212,8 +11158,10 @@
       <c r="AK168" s="21"/>
       <c r="AL168" s="21"/>
       <c r="AM168" s="21"/>
-    </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN168" s="21"/>
+      <c r="AO168" s="21"/>
+    </row>
+    <row r="169" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -10253,8 +11201,10 @@
       <c r="AK169" s="21"/>
       <c r="AL169" s="21"/>
       <c r="AM169" s="21"/>
-    </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN169" s="21"/>
+      <c r="AO169" s="21"/>
+    </row>
+    <row r="170" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -10294,8 +11244,10 @@
       <c r="AK170" s="21"/>
       <c r="AL170" s="21"/>
       <c r="AM170" s="21"/>
-    </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN170" s="21"/>
+      <c r="AO170" s="21"/>
+    </row>
+    <row r="171" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -10335,8 +11287,10 @@
       <c r="AK171" s="21"/>
       <c r="AL171" s="21"/>
       <c r="AM171" s="21"/>
-    </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN171" s="21"/>
+      <c r="AO171" s="21"/>
+    </row>
+    <row r="172" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -10376,8 +11330,10 @@
       <c r="AK172" s="21"/>
       <c r="AL172" s="21"/>
       <c r="AM172" s="21"/>
-    </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN172" s="21"/>
+      <c r="AO172" s="21"/>
+    </row>
+    <row r="173" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -10417,8 +11373,10 @@
       <c r="AK173" s="21"/>
       <c r="AL173" s="21"/>
       <c r="AM173" s="21"/>
-    </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN173" s="21"/>
+      <c r="AO173" s="21"/>
+    </row>
+    <row r="174" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -10458,8 +11416,10 @@
       <c r="AK174" s="21"/>
       <c r="AL174" s="21"/>
       <c r="AM174" s="21"/>
-    </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN174" s="21"/>
+      <c r="AO174" s="21"/>
+    </row>
+    <row r="175" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -10499,8 +11459,10 @@
       <c r="AK175" s="21"/>
       <c r="AL175" s="21"/>
       <c r="AM175" s="21"/>
-    </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN175" s="21"/>
+      <c r="AO175" s="21"/>
+    </row>
+    <row r="176" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -10540,8 +11502,10 @@
       <c r="AK176" s="21"/>
       <c r="AL176" s="21"/>
       <c r="AM176" s="21"/>
-    </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN176" s="21"/>
+      <c r="AO176" s="21"/>
+    </row>
+    <row r="177" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -10581,8 +11545,10 @@
       <c r="AK177" s="21"/>
       <c r="AL177" s="21"/>
       <c r="AM177" s="21"/>
-    </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN177" s="21"/>
+      <c r="AO177" s="21"/>
+    </row>
+    <row r="178" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -10622,8 +11588,10 @@
       <c r="AK178" s="21"/>
       <c r="AL178" s="21"/>
       <c r="AM178" s="21"/>
-    </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN178" s="21"/>
+      <c r="AO178" s="21"/>
+    </row>
+    <row r="179" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -10663,8 +11631,10 @@
       <c r="AK179" s="21"/>
       <c r="AL179" s="21"/>
       <c r="AM179" s="21"/>
-    </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN179" s="21"/>
+      <c r="AO179" s="21"/>
+    </row>
+    <row r="180" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -10704,8 +11674,10 @@
       <c r="AK180" s="21"/>
       <c r="AL180" s="21"/>
       <c r="AM180" s="21"/>
-    </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN180" s="21"/>
+      <c r="AO180" s="21"/>
+    </row>
+    <row r="181" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -10745,8 +11717,10 @@
       <c r="AK181" s="21"/>
       <c r="AL181" s="21"/>
       <c r="AM181" s="21"/>
-    </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN181" s="21"/>
+      <c r="AO181" s="21"/>
+    </row>
+    <row r="182" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -10786,8 +11760,10 @@
       <c r="AK182" s="21"/>
       <c r="AL182" s="21"/>
       <c r="AM182" s="21"/>
-    </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN182" s="21"/>
+      <c r="AO182" s="21"/>
+    </row>
+    <row r="183" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -10827,8 +11803,10 @@
       <c r="AK183" s="21"/>
       <c r="AL183" s="21"/>
       <c r="AM183" s="21"/>
-    </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN183" s="21"/>
+      <c r="AO183" s="21"/>
+    </row>
+    <row r="184" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -10868,8 +11846,10 @@
       <c r="AK184" s="21"/>
       <c r="AL184" s="21"/>
       <c r="AM184" s="21"/>
-    </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN184" s="21"/>
+      <c r="AO184" s="21"/>
+    </row>
+    <row r="185" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A185" s="21"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
@@ -10909,8 +11889,10 @@
       <c r="AK185" s="21"/>
       <c r="AL185" s="21"/>
       <c r="AM185" s="21"/>
-    </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN185" s="21"/>
+      <c r="AO185" s="21"/>
+    </row>
+    <row r="186" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
@@ -10950,8 +11932,10 @@
       <c r="AK186" s="21"/>
       <c r="AL186" s="21"/>
       <c r="AM186" s="21"/>
-    </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN186" s="21"/>
+      <c r="AO186" s="21"/>
+    </row>
+    <row r="187" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
@@ -10991,8 +11975,10 @@
       <c r="AK187" s="21"/>
       <c r="AL187" s="21"/>
       <c r="AM187" s="21"/>
-    </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN187" s="21"/>
+      <c r="AO187" s="21"/>
+    </row>
+    <row r="188" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A188" s="21"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
@@ -11032,8 +12018,10 @@
       <c r="AK188" s="21"/>
       <c r="AL188" s="21"/>
       <c r="AM188" s="21"/>
-    </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN188" s="21"/>
+      <c r="AO188" s="21"/>
+    </row>
+    <row r="189" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A189" s="21"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
@@ -11073,8 +12061,10 @@
       <c r="AK189" s="21"/>
       <c r="AL189" s="21"/>
       <c r="AM189" s="21"/>
-    </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN189" s="21"/>
+      <c r="AO189" s="21"/>
+    </row>
+    <row r="190" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A190" s="21"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
@@ -11114,8 +12104,10 @@
       <c r="AK190" s="21"/>
       <c r="AL190" s="21"/>
       <c r="AM190" s="21"/>
-    </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN190" s="21"/>
+      <c r="AO190" s="21"/>
+    </row>
+    <row r="191" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -11155,8 +12147,10 @@
       <c r="AK191" s="21"/>
       <c r="AL191" s="21"/>
       <c r="AM191" s="21"/>
-    </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN191" s="21"/>
+      <c r="AO191" s="21"/>
+    </row>
+    <row r="192" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A192" s="21"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
@@ -11196,8 +12190,10 @@
       <c r="AK192" s="21"/>
       <c r="AL192" s="21"/>
       <c r="AM192" s="21"/>
-    </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN192" s="21"/>
+      <c r="AO192" s="21"/>
+    </row>
+    <row r="193" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
@@ -11237,8 +12233,10 @@
       <c r="AK193" s="21"/>
       <c r="AL193" s="21"/>
       <c r="AM193" s="21"/>
-    </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN193" s="21"/>
+      <c r="AO193" s="21"/>
+    </row>
+    <row r="194" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
@@ -11278,8 +12276,10 @@
       <c r="AK194" s="21"/>
       <c r="AL194" s="21"/>
       <c r="AM194" s="21"/>
-    </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN194" s="21"/>
+      <c r="AO194" s="21"/>
+    </row>
+    <row r="195" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A195" s="21"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -11319,8 +12319,10 @@
       <c r="AK195" s="21"/>
       <c r="AL195" s="21"/>
       <c r="AM195" s="21"/>
-    </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN195" s="21"/>
+      <c r="AO195" s="21"/>
+    </row>
+    <row r="196" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A196" s="21"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -11360,8 +12362,10 @@
       <c r="AK196" s="21"/>
       <c r="AL196" s="21"/>
       <c r="AM196" s="21"/>
-    </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN196" s="21"/>
+      <c r="AO196" s="21"/>
+    </row>
+    <row r="197" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A197" s="21"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -11401,8 +12405,10 @@
       <c r="AK197" s="21"/>
       <c r="AL197" s="21"/>
       <c r="AM197" s="21"/>
-    </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN197" s="21"/>
+      <c r="AO197" s="21"/>
+    </row>
+    <row r="198" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -11442,8 +12448,10 @@
       <c r="AK198" s="21"/>
       <c r="AL198" s="21"/>
       <c r="AM198" s="21"/>
-    </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN198" s="21"/>
+      <c r="AO198" s="21"/>
+    </row>
+    <row r="199" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A199" s="21"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -11483,8 +12491,10 @@
       <c r="AK199" s="21"/>
       <c r="AL199" s="21"/>
       <c r="AM199" s="21"/>
-    </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN199" s="21"/>
+      <c r="AO199" s="21"/>
+    </row>
+    <row r="200" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
@@ -11524,8 +12534,10 @@
       <c r="AK200" s="21"/>
       <c r="AL200" s="21"/>
       <c r="AM200" s="21"/>
-    </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN200" s="21"/>
+      <c r="AO200" s="21"/>
+    </row>
+    <row r="201" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
@@ -11565,8 +12577,10 @@
       <c r="AK201" s="21"/>
       <c r="AL201" s="21"/>
       <c r="AM201" s="21"/>
-    </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN201" s="21"/>
+      <c r="AO201" s="21"/>
+    </row>
+    <row r="202" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A202" s="21"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
@@ -11606,8 +12620,10 @@
       <c r="AK202" s="21"/>
       <c r="AL202" s="21"/>
       <c r="AM202" s="21"/>
-    </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN202" s="21"/>
+      <c r="AO202" s="21"/>
+    </row>
+    <row r="203" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A203" s="21"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -11647,8 +12663,10 @@
       <c r="AK203" s="21"/>
       <c r="AL203" s="21"/>
       <c r="AM203" s="21"/>
-    </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN203" s="21"/>
+      <c r="AO203" s="21"/>
+    </row>
+    <row r="204" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A204" s="21"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -11688,8 +12706,10 @@
       <c r="AK204" s="21"/>
       <c r="AL204" s="21"/>
       <c r="AM204" s="21"/>
-    </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN204" s="21"/>
+      <c r="AO204" s="21"/>
+    </row>
+    <row r="205" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A205" s="21"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
@@ -11729,8 +12749,10 @@
       <c r="AK205" s="21"/>
       <c r="AL205" s="21"/>
       <c r="AM205" s="21"/>
-    </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN205" s="21"/>
+      <c r="AO205" s="21"/>
+    </row>
+    <row r="206" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A206" s="21"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
@@ -11770,8 +12792,10 @@
       <c r="AK206" s="21"/>
       <c r="AL206" s="21"/>
       <c r="AM206" s="21"/>
-    </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN206" s="21"/>
+      <c r="AO206" s="21"/>
+    </row>
+    <row r="207" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
@@ -11811,8 +12835,10 @@
       <c r="AK207" s="21"/>
       <c r="AL207" s="21"/>
       <c r="AM207" s="21"/>
-    </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN207" s="21"/>
+      <c r="AO207" s="21"/>
+    </row>
+    <row r="208" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A208" s="21"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
@@ -11852,8 +12878,10 @@
       <c r="AK208" s="21"/>
       <c r="AL208" s="21"/>
       <c r="AM208" s="21"/>
-    </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN208" s="21"/>
+      <c r="AO208" s="21"/>
+    </row>
+    <row r="209" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
@@ -11893,8 +12921,10 @@
       <c r="AK209" s="21"/>
       <c r="AL209" s="21"/>
       <c r="AM209" s="21"/>
-    </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN209" s="21"/>
+      <c r="AO209" s="21"/>
+    </row>
+    <row r="210" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
@@ -11934,8 +12964,10 @@
       <c r="AK210" s="21"/>
       <c r="AL210" s="21"/>
       <c r="AM210" s="21"/>
-    </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN210" s="21"/>
+      <c r="AO210" s="21"/>
+    </row>
+    <row r="211" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A211" s="21"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
@@ -11975,8 +13007,10 @@
       <c r="AK211" s="21"/>
       <c r="AL211" s="21"/>
       <c r="AM211" s="21"/>
-    </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN211" s="21"/>
+      <c r="AO211" s="21"/>
+    </row>
+    <row r="212" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A212" s="21"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
@@ -12016,8 +13050,10 @@
       <c r="AK212" s="21"/>
       <c r="AL212" s="21"/>
       <c r="AM212" s="21"/>
-    </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN212" s="21"/>
+      <c r="AO212" s="21"/>
+    </row>
+    <row r="213" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A213" s="21"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -12057,8 +13093,10 @@
       <c r="AK213" s="21"/>
       <c r="AL213" s="21"/>
       <c r="AM213" s="21"/>
-    </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN213" s="21"/>
+      <c r="AO213" s="21"/>
+    </row>
+    <row r="214" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
@@ -12098,8 +13136,10 @@
       <c r="AK214" s="21"/>
       <c r="AL214" s="21"/>
       <c r="AM214" s="21"/>
-    </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN214" s="21"/>
+      <c r="AO214" s="21"/>
+    </row>
+    <row r="215" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
@@ -12139,8 +13179,10 @@
       <c r="AK215" s="21"/>
       <c r="AL215" s="21"/>
       <c r="AM215" s="21"/>
-    </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN215" s="21"/>
+      <c r="AO215" s="21"/>
+    </row>
+    <row r="216" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A216" s="21"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
@@ -12180,8 +13222,10 @@
       <c r="AK216" s="21"/>
       <c r="AL216" s="21"/>
       <c r="AM216" s="21"/>
-    </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN216" s="21"/>
+      <c r="AO216" s="21"/>
+    </row>
+    <row r="217" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A217" s="21"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
@@ -12221,8 +13265,10 @@
       <c r="AK217" s="21"/>
       <c r="AL217" s="21"/>
       <c r="AM217" s="21"/>
-    </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN217" s="21"/>
+      <c r="AO217" s="21"/>
+    </row>
+    <row r="218" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A218" s="21"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
@@ -12262,8 +13308,10 @@
       <c r="AK218" s="21"/>
       <c r="AL218" s="21"/>
       <c r="AM218" s="21"/>
-    </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN218" s="21"/>
+      <c r="AO218" s="21"/>
+    </row>
+    <row r="219" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A219" s="21"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
@@ -12303,8 +13351,10 @@
       <c r="AK219" s="21"/>
       <c r="AL219" s="21"/>
       <c r="AM219" s="21"/>
-    </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN219" s="21"/>
+      <c r="AO219" s="21"/>
+    </row>
+    <row r="220" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
@@ -12344,8 +13394,10 @@
       <c r="AK220" s="21"/>
       <c r="AL220" s="21"/>
       <c r="AM220" s="21"/>
-    </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN220" s="21"/>
+      <c r="AO220" s="21"/>
+    </row>
+    <row r="221" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
@@ -12385,8 +13437,10 @@
       <c r="AK221" s="21"/>
       <c r="AL221" s="21"/>
       <c r="AM221" s="21"/>
-    </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN221" s="21"/>
+      <c r="AO221" s="21"/>
+    </row>
+    <row r="222" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -12426,8 +13480,10 @@
       <c r="AK222" s="21"/>
       <c r="AL222" s="21"/>
       <c r="AM222" s="21"/>
-    </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN222" s="21"/>
+      <c r="AO222" s="21"/>
+    </row>
+    <row r="223" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A223" s="21"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -12467,8 +13523,10 @@
       <c r="AK223" s="21"/>
       <c r="AL223" s="21"/>
       <c r="AM223" s="21"/>
-    </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN223" s="21"/>
+      <c r="AO223" s="21"/>
+    </row>
+    <row r="224" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A224" s="21"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -12508,8 +13566,10 @@
       <c r="AK224" s="21"/>
       <c r="AL224" s="21"/>
       <c r="AM224" s="21"/>
-    </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN224" s="21"/>
+      <c r="AO224" s="21"/>
+    </row>
+    <row r="225" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A225" s="21"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
@@ -12549,8 +13609,10 @@
       <c r="AK225" s="21"/>
       <c r="AL225" s="21"/>
       <c r="AM225" s="21"/>
-    </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN225" s="21"/>
+      <c r="AO225" s="21"/>
+    </row>
+    <row r="226" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -12590,8 +13652,10 @@
       <c r="AK226" s="21"/>
       <c r="AL226" s="21"/>
       <c r="AM226" s="21"/>
-    </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN226" s="21"/>
+      <c r="AO226" s="21"/>
+    </row>
+    <row r="227" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A227" s="21"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
@@ -12631,8 +13695,10 @@
       <c r="AK227" s="21"/>
       <c r="AL227" s="21"/>
       <c r="AM227" s="21"/>
-    </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN227" s="21"/>
+      <c r="AO227" s="21"/>
+    </row>
+    <row r="228" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
@@ -12672,8 +13738,10 @@
       <c r="AK228" s="21"/>
       <c r="AL228" s="21"/>
       <c r="AM228" s="21"/>
-    </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN228" s="21"/>
+      <c r="AO228" s="21"/>
+    </row>
+    <row r="229" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
@@ -12713,8 +13781,10 @@
       <c r="AK229" s="21"/>
       <c r="AL229" s="21"/>
       <c r="AM229" s="21"/>
-    </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN229" s="21"/>
+      <c r="AO229" s="21"/>
+    </row>
+    <row r="230" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A230" s="21"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
@@ -12754,8 +13824,10 @@
       <c r="AK230" s="21"/>
       <c r="AL230" s="21"/>
       <c r="AM230" s="21"/>
-    </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN230" s="21"/>
+      <c r="AO230" s="21"/>
+    </row>
+    <row r="231" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A231" s="21"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
@@ -12795,8 +13867,10 @@
       <c r="AK231" s="21"/>
       <c r="AL231" s="21"/>
       <c r="AM231" s="21"/>
-    </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN231" s="21"/>
+      <c r="AO231" s="21"/>
+    </row>
+    <row r="232" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A232" s="21"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
@@ -12836,8 +13910,10 @@
       <c r="AK232" s="21"/>
       <c r="AL232" s="21"/>
       <c r="AM232" s="21"/>
-    </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN232" s="21"/>
+      <c r="AO232" s="21"/>
+    </row>
+    <row r="233" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A233" s="21"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
@@ -12877,8 +13953,10 @@
       <c r="AK233" s="21"/>
       <c r="AL233" s="21"/>
       <c r="AM233" s="21"/>
-    </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN233" s="21"/>
+      <c r="AO233" s="21"/>
+    </row>
+    <row r="234" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A234" s="21"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
@@ -12918,8 +13996,10 @@
       <c r="AK234" s="21"/>
       <c r="AL234" s="21"/>
       <c r="AM234" s="21"/>
-    </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN234" s="21"/>
+      <c r="AO234" s="21"/>
+    </row>
+    <row r="235" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A235" s="21"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
@@ -12959,8 +14039,10 @@
       <c r="AK235" s="21"/>
       <c r="AL235" s="21"/>
       <c r="AM235" s="21"/>
-    </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN235" s="21"/>
+      <c r="AO235" s="21"/>
+    </row>
+    <row r="236" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A236" s="21"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
@@ -13000,8 +14082,10 @@
       <c r="AK236" s="21"/>
       <c r="AL236" s="21"/>
       <c r="AM236" s="21"/>
-    </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN236" s="21"/>
+      <c r="AO236" s="21"/>
+    </row>
+    <row r="237" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A237" s="21"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
@@ -13041,8 +14125,10 @@
       <c r="AK237" s="21"/>
       <c r="AL237" s="21"/>
       <c r="AM237" s="21"/>
-    </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN237" s="21"/>
+      <c r="AO237" s="21"/>
+    </row>
+    <row r="238" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A238" s="21"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -13082,8 +14168,10 @@
       <c r="AK238" s="21"/>
       <c r="AL238" s="21"/>
       <c r="AM238" s="21"/>
-    </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN238" s="21"/>
+      <c r="AO238" s="21"/>
+    </row>
+    <row r="239" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A239" s="21"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
@@ -13123,8 +14211,10 @@
       <c r="AK239" s="21"/>
       <c r="AL239" s="21"/>
       <c r="AM239" s="21"/>
-    </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN239" s="21"/>
+      <c r="AO239" s="21"/>
+    </row>
+    <row r="240" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A240" s="21"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
@@ -13164,8 +14254,10 @@
       <c r="AK240" s="21"/>
       <c r="AL240" s="21"/>
       <c r="AM240" s="21"/>
-    </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN240" s="21"/>
+      <c r="AO240" s="21"/>
+    </row>
+    <row r="241" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A241" s="21"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
@@ -13205,8 +14297,10 @@
       <c r="AK241" s="21"/>
       <c r="AL241" s="21"/>
       <c r="AM241" s="21"/>
-    </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN241" s="21"/>
+      <c r="AO241" s="21"/>
+    </row>
+    <row r="242" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A242" s="21"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
@@ -13246,8 +14340,10 @@
       <c r="AK242" s="21"/>
       <c r="AL242" s="21"/>
       <c r="AM242" s="21"/>
-    </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN242" s="21"/>
+      <c r="AO242" s="21"/>
+    </row>
+    <row r="243" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
@@ -13287,8 +14383,10 @@
       <c r="AK243" s="21"/>
       <c r="AL243" s="21"/>
       <c r="AM243" s="21"/>
-    </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN243" s="21"/>
+      <c r="AO243" s="21"/>
+    </row>
+    <row r="244" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A244" s="21"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -13328,8 +14426,10 @@
       <c r="AK244" s="21"/>
       <c r="AL244" s="21"/>
       <c r="AM244" s="21"/>
-    </row>
-    <row r="245" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN244" s="21"/>
+      <c r="AO244" s="21"/>
+    </row>
+    <row r="245" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A245" s="21"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
@@ -13369,8 +14469,10 @@
       <c r="AK245" s="21"/>
       <c r="AL245" s="21"/>
       <c r="AM245" s="21"/>
-    </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN245" s="21"/>
+      <c r="AO245" s="21"/>
+    </row>
+    <row r="246" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A246" s="21"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
@@ -13410,8 +14512,10 @@
       <c r="AK246" s="21"/>
       <c r="AL246" s="21"/>
       <c r="AM246" s="21"/>
-    </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN246" s="21"/>
+      <c r="AO246" s="21"/>
+    </row>
+    <row r="247" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A247" s="21"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
@@ -13451,8 +14555,10 @@
       <c r="AK247" s="21"/>
       <c r="AL247" s="21"/>
       <c r="AM247" s="21"/>
-    </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN247" s="21"/>
+      <c r="AO247" s="21"/>
+    </row>
+    <row r="248" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A248" s="21"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -13492,8 +14598,10 @@
       <c r="AK248" s="21"/>
       <c r="AL248" s="21"/>
       <c r="AM248" s="21"/>
-    </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN248" s="21"/>
+      <c r="AO248" s="21"/>
+    </row>
+    <row r="249" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A249" s="21"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -13533,8 +14641,10 @@
       <c r="AK249" s="21"/>
       <c r="AL249" s="21"/>
       <c r="AM249" s="21"/>
-    </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN249" s="21"/>
+      <c r="AO249" s="21"/>
+    </row>
+    <row r="250" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A250" s="21"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -13574,8 +14684,10 @@
       <c r="AK250" s="21"/>
       <c r="AL250" s="21"/>
       <c r="AM250" s="21"/>
-    </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN250" s="21"/>
+      <c r="AO250" s="21"/>
+    </row>
+    <row r="251" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A251" s="21"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -13615,8 +14727,10 @@
       <c r="AK251" s="21"/>
       <c r="AL251" s="21"/>
       <c r="AM251" s="21"/>
-    </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN251" s="21"/>
+      <c r="AO251" s="21"/>
+    </row>
+    <row r="252" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A252" s="21"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -13656,8 +14770,10 @@
       <c r="AK252" s="21"/>
       <c r="AL252" s="21"/>
       <c r="AM252" s="21"/>
-    </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN252" s="21"/>
+      <c r="AO252" s="21"/>
+    </row>
+    <row r="253" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A253" s="21"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -13697,8 +14813,10 @@
       <c r="AK253" s="21"/>
       <c r="AL253" s="21"/>
       <c r="AM253" s="21"/>
-    </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN253" s="21"/>
+      <c r="AO253" s="21"/>
+    </row>
+    <row r="254" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A254" s="21"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
@@ -13738,8 +14856,10 @@
       <c r="AK254" s="21"/>
       <c r="AL254" s="21"/>
       <c r="AM254" s="21"/>
-    </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN254" s="21"/>
+      <c r="AO254" s="21"/>
+    </row>
+    <row r="255" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -13779,8 +14899,10 @@
       <c r="AK255" s="21"/>
       <c r="AL255" s="21"/>
       <c r="AM255" s="21"/>
-    </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN255" s="21"/>
+      <c r="AO255" s="21"/>
+    </row>
+    <row r="256" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A256" s="21"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
@@ -13820,8 +14942,10 @@
       <c r="AK256" s="21"/>
       <c r="AL256" s="21"/>
       <c r="AM256" s="21"/>
-    </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN256" s="21"/>
+      <c r="AO256" s="21"/>
+    </row>
+    <row r="257" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
@@ -13861,8 +14985,10 @@
       <c r="AK257" s="21"/>
       <c r="AL257" s="21"/>
       <c r="AM257" s="21"/>
-    </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN257" s="21"/>
+      <c r="AO257" s="21"/>
+    </row>
+    <row r="258" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A258" s="21"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
@@ -13902,8 +15028,10 @@
       <c r="AK258" s="21"/>
       <c r="AL258" s="21"/>
       <c r="AM258" s="21"/>
-    </row>
-    <row r="259" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN258" s="21"/>
+      <c r="AO258" s="21"/>
+    </row>
+    <row r="259" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A259" s="21"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
@@ -13943,8 +15071,10 @@
       <c r="AK259" s="21"/>
       <c r="AL259" s="21"/>
       <c r="AM259" s="21"/>
-    </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN259" s="21"/>
+      <c r="AO259" s="21"/>
+    </row>
+    <row r="260" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A260" s="21"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -13984,8 +15114,10 @@
       <c r="AK260" s="21"/>
       <c r="AL260" s="21"/>
       <c r="AM260" s="21"/>
-    </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN260" s="21"/>
+      <c r="AO260" s="21"/>
+    </row>
+    <row r="261" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A261" s="21"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
@@ -14025,8 +15157,10 @@
       <c r="AK261" s="21"/>
       <c r="AL261" s="21"/>
       <c r="AM261" s="21"/>
-    </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN261" s="21"/>
+      <c r="AO261" s="21"/>
+    </row>
+    <row r="262" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A262" s="21"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
@@ -14066,8 +15200,10 @@
       <c r="AK262" s="21"/>
       <c r="AL262" s="21"/>
       <c r="AM262" s="21"/>
-    </row>
-    <row r="263" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN262" s="21"/>
+      <c r="AO262" s="21"/>
+    </row>
+    <row r="263" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
@@ -14107,8 +15243,10 @@
       <c r="AK263" s="21"/>
       <c r="AL263" s="21"/>
       <c r="AM263" s="21"/>
-    </row>
-    <row r="264" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN263" s="21"/>
+      <c r="AO263" s="21"/>
+    </row>
+    <row r="264" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
@@ -14148,8 +15286,10 @@
       <c r="AK264" s="21"/>
       <c r="AL264" s="21"/>
       <c r="AM264" s="21"/>
-    </row>
-    <row r="265" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN264" s="21"/>
+      <c r="AO264" s="21"/>
+    </row>
+    <row r="265" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A265" s="21"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
@@ -14189,8 +15329,10 @@
       <c r="AK265" s="21"/>
       <c r="AL265" s="21"/>
       <c r="AM265" s="21"/>
-    </row>
-    <row r="266" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN265" s="21"/>
+      <c r="AO265" s="21"/>
+    </row>
+    <row r="266" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A266" s="21"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
@@ -14230,8 +15372,10 @@
       <c r="AK266" s="21"/>
       <c r="AL266" s="21"/>
       <c r="AM266" s="21"/>
-    </row>
-    <row r="267" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN266" s="21"/>
+      <c r="AO266" s="21"/>
+    </row>
+    <row r="267" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A267" s="21"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
@@ -14271,8 +15415,10 @@
       <c r="AK267" s="21"/>
       <c r="AL267" s="21"/>
       <c r="AM267" s="21"/>
-    </row>
-    <row r="268" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN267" s="21"/>
+      <c r="AO267" s="21"/>
+    </row>
+    <row r="268" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A268" s="21"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
@@ -14312,8 +15458,10 @@
       <c r="AK268" s="21"/>
       <c r="AL268" s="21"/>
       <c r="AM268" s="21"/>
-    </row>
-    <row r="269" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN268" s="21"/>
+      <c r="AO268" s="21"/>
+    </row>
+    <row r="269" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A269" s="21"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
@@ -14353,8 +15501,10 @@
       <c r="AK269" s="21"/>
       <c r="AL269" s="21"/>
       <c r="AM269" s="21"/>
-    </row>
-    <row r="270" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN269" s="21"/>
+      <c r="AO269" s="21"/>
+    </row>
+    <row r="270" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -14394,8 +15544,10 @@
       <c r="AK270" s="21"/>
       <c r="AL270" s="21"/>
       <c r="AM270" s="21"/>
-    </row>
-    <row r="271" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN270" s="21"/>
+      <c r="AO270" s="21"/>
+    </row>
+    <row r="271" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A271" s="21"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
@@ -14435,8 +15587,10 @@
       <c r="AK271" s="21"/>
       <c r="AL271" s="21"/>
       <c r="AM271" s="21"/>
-    </row>
-    <row r="272" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN271" s="21"/>
+      <c r="AO271" s="21"/>
+    </row>
+    <row r="272" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A272" s="21"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -14476,8 +15630,10 @@
       <c r="AK272" s="21"/>
       <c r="AL272" s="21"/>
       <c r="AM272" s="21"/>
-    </row>
-    <row r="273" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN272" s="21"/>
+      <c r="AO272" s="21"/>
+    </row>
+    <row r="273" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A273" s="21"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
@@ -14517,8 +15673,10 @@
       <c r="AK273" s="21"/>
       <c r="AL273" s="21"/>
       <c r="AM273" s="21"/>
-    </row>
-    <row r="274" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN273" s="21"/>
+      <c r="AO273" s="21"/>
+    </row>
+    <row r="274" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A274" s="21"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
@@ -14558,8 +15716,10 @@
       <c r="AK274" s="21"/>
       <c r="AL274" s="21"/>
       <c r="AM274" s="21"/>
-    </row>
-    <row r="275" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN274" s="21"/>
+      <c r="AO274" s="21"/>
+    </row>
+    <row r="275" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A275" s="21"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
@@ -14599,8 +15759,10 @@
       <c r="AK275" s="21"/>
       <c r="AL275" s="21"/>
       <c r="AM275" s="21"/>
-    </row>
-    <row r="276" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN275" s="21"/>
+      <c r="AO275" s="21"/>
+    </row>
+    <row r="276" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A276" s="21"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -14640,8 +15802,10 @@
       <c r="AK276" s="21"/>
       <c r="AL276" s="21"/>
       <c r="AM276" s="21"/>
-    </row>
-    <row r="277" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN276" s="21"/>
+      <c r="AO276" s="21"/>
+    </row>
+    <row r="277" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A277" s="21"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -14681,8 +15845,10 @@
       <c r="AK277" s="21"/>
       <c r="AL277" s="21"/>
       <c r="AM277" s="21"/>
-    </row>
-    <row r="278" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN277" s="21"/>
+      <c r="AO277" s="21"/>
+    </row>
+    <row r="278" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A278" s="21"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -14722,8 +15888,10 @@
       <c r="AK278" s="21"/>
       <c r="AL278" s="21"/>
       <c r="AM278" s="21"/>
-    </row>
-    <row r="279" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN278" s="21"/>
+      <c r="AO278" s="21"/>
+    </row>
+    <row r="279" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A279" s="21"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -14763,8 +15931,10 @@
       <c r="AK279" s="21"/>
       <c r="AL279" s="21"/>
       <c r="AM279" s="21"/>
-    </row>
-    <row r="280" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN279" s="21"/>
+      <c r="AO279" s="21"/>
+    </row>
+    <row r="280" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A280" s="21"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -14804,8 +15974,10 @@
       <c r="AK280" s="21"/>
       <c r="AL280" s="21"/>
       <c r="AM280" s="21"/>
-    </row>
-    <row r="281" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN280" s="21"/>
+      <c r="AO280" s="21"/>
+    </row>
+    <row r="281" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A281" s="21"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
@@ -14845,8 +16017,10 @@
       <c r="AK281" s="21"/>
       <c r="AL281" s="21"/>
       <c r="AM281" s="21"/>
-    </row>
-    <row r="282" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN281" s="21"/>
+      <c r="AO281" s="21"/>
+    </row>
+    <row r="282" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A282" s="21"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
@@ -14886,8 +16060,10 @@
       <c r="AK282" s="21"/>
       <c r="AL282" s="21"/>
       <c r="AM282" s="21"/>
-    </row>
-    <row r="283" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN282" s="21"/>
+      <c r="AO282" s="21"/>
+    </row>
+    <row r="283" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A283" s="21"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
@@ -14927,8 +16103,10 @@
       <c r="AK283" s="21"/>
       <c r="AL283" s="21"/>
       <c r="AM283" s="21"/>
-    </row>
-    <row r="284" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN283" s="21"/>
+      <c r="AO283" s="21"/>
+    </row>
+    <row r="284" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
@@ -14968,8 +16146,10 @@
       <c r="AK284" s="21"/>
       <c r="AL284" s="21"/>
       <c r="AM284" s="21"/>
-    </row>
-    <row r="285" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN284" s="21"/>
+      <c r="AO284" s="21"/>
+    </row>
+    <row r="285" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
@@ -15009,8 +16189,10 @@
       <c r="AK285" s="21"/>
       <c r="AL285" s="21"/>
       <c r="AM285" s="21"/>
-    </row>
-    <row r="286" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN285" s="21"/>
+      <c r="AO285" s="21"/>
+    </row>
+    <row r="286" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
@@ -15050,8 +16232,10 @@
       <c r="AK286" s="21"/>
       <c r="AL286" s="21"/>
       <c r="AM286" s="21"/>
-    </row>
-    <row r="287" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN286" s="21"/>
+      <c r="AO286" s="21"/>
+    </row>
+    <row r="287" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
@@ -15091,8 +16275,10 @@
       <c r="AK287" s="21"/>
       <c r="AL287" s="21"/>
       <c r="AM287" s="21"/>
-    </row>
-    <row r="288" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN287" s="21"/>
+      <c r="AO287" s="21"/>
+    </row>
+    <row r="288" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A288" s="21"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
@@ -15132,8 +16318,10 @@
       <c r="AK288" s="21"/>
       <c r="AL288" s="21"/>
       <c r="AM288" s="21"/>
-    </row>
-    <row r="289" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN288" s="21"/>
+      <c r="AO288" s="21"/>
+    </row>
+    <row r="289" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A289" s="21"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
@@ -15173,8 +16361,10 @@
       <c r="AK289" s="21"/>
       <c r="AL289" s="21"/>
       <c r="AM289" s="21"/>
-    </row>
-    <row r="290" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN289" s="21"/>
+      <c r="AO289" s="21"/>
+    </row>
+    <row r="290" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -15214,8 +16404,10 @@
       <c r="AK290" s="21"/>
       <c r="AL290" s="21"/>
       <c r="AM290" s="21"/>
-    </row>
-    <row r="291" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN290" s="21"/>
+      <c r="AO290" s="21"/>
+    </row>
+    <row r="291" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -15255,8 +16447,10 @@
       <c r="AK291" s="21"/>
       <c r="AL291" s="21"/>
       <c r="AM291" s="21"/>
-    </row>
-    <row r="292" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN291" s="21"/>
+      <c r="AO291" s="21"/>
+    </row>
+    <row r="292" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -15296,8 +16490,10 @@
       <c r="AK292" s="21"/>
       <c r="AL292" s="21"/>
       <c r="AM292" s="21"/>
-    </row>
-    <row r="293" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN292" s="21"/>
+      <c r="AO292" s="21"/>
+    </row>
+    <row r="293" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -15337,8 +16533,10 @@
       <c r="AK293" s="21"/>
       <c r="AL293" s="21"/>
       <c r="AM293" s="21"/>
-    </row>
-    <row r="294" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN293" s="21"/>
+      <c r="AO293" s="21"/>
+    </row>
+    <row r="294" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -15378,8 +16576,10 @@
       <c r="AK294" s="21"/>
       <c r="AL294" s="21"/>
       <c r="AM294" s="21"/>
-    </row>
-    <row r="295" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN294" s="21"/>
+      <c r="AO294" s="21"/>
+    </row>
+    <row r="295" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A295" s="21"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -15419,8 +16619,10 @@
       <c r="AK295" s="21"/>
       <c r="AL295" s="21"/>
       <c r="AM295" s="21"/>
-    </row>
-    <row r="296" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN295" s="21"/>
+      <c r="AO295" s="21"/>
+    </row>
+    <row r="296" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A296" s="21"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -15460,8 +16662,10 @@
       <c r="AK296" s="21"/>
       <c r="AL296" s="21"/>
       <c r="AM296" s="21"/>
-    </row>
-    <row r="297" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN296" s="21"/>
+      <c r="AO296" s="21"/>
+    </row>
+    <row r="297" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A297" s="21"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
@@ -15501,8 +16705,10 @@
       <c r="AK297" s="21"/>
       <c r="AL297" s="21"/>
       <c r="AM297" s="21"/>
-    </row>
-    <row r="298" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN297" s="21"/>
+      <c r="AO297" s="21"/>
+    </row>
+    <row r="298" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A298" s="21"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -15542,8 +16748,10 @@
       <c r="AK298" s="21"/>
       <c r="AL298" s="21"/>
       <c r="AM298" s="21"/>
-    </row>
-    <row r="299" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN298" s="21"/>
+      <c r="AO298" s="21"/>
+    </row>
+    <row r="299" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A299" s="21"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
@@ -15583,8 +16791,10 @@
       <c r="AK299" s="21"/>
       <c r="AL299" s="21"/>
       <c r="AM299" s="21"/>
-    </row>
-    <row r="300" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN299" s="21"/>
+      <c r="AO299" s="21"/>
+    </row>
+    <row r="300" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A300" s="21"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
@@ -15624,8 +16834,10 @@
       <c r="AK300" s="21"/>
       <c r="AL300" s="21"/>
       <c r="AM300" s="21"/>
-    </row>
-    <row r="301" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN300" s="21"/>
+      <c r="AO300" s="21"/>
+    </row>
+    <row r="301" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A301" s="21"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
@@ -15665,8 +16877,10 @@
       <c r="AK301" s="21"/>
       <c r="AL301" s="21"/>
       <c r="AM301" s="21"/>
-    </row>
-    <row r="302" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN301" s="21"/>
+      <c r="AO301" s="21"/>
+    </row>
+    <row r="302" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A302" s="21"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
@@ -15706,8 +16920,10 @@
       <c r="AK302" s="21"/>
       <c r="AL302" s="21"/>
       <c r="AM302" s="21"/>
-    </row>
-    <row r="303" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN302" s="21"/>
+      <c r="AO302" s="21"/>
+    </row>
+    <row r="303" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A303" s="21"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -15747,8 +16963,10 @@
       <c r="AK303" s="21"/>
       <c r="AL303" s="21"/>
       <c r="AM303" s="21"/>
-    </row>
-    <row r="304" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN303" s="21"/>
+      <c r="AO303" s="21"/>
+    </row>
+    <row r="304" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A304" s="21"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -15788,8 +17006,10 @@
       <c r="AK304" s="21"/>
       <c r="AL304" s="21"/>
       <c r="AM304" s="21"/>
-    </row>
-    <row r="305" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN304" s="21"/>
+      <c r="AO304" s="21"/>
+    </row>
+    <row r="305" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A305" s="21"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -15829,8 +17049,10 @@
       <c r="AK305" s="21"/>
       <c r="AL305" s="21"/>
       <c r="AM305" s="21"/>
-    </row>
-    <row r="306" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN305" s="21"/>
+      <c r="AO305" s="21"/>
+    </row>
+    <row r="306" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A306" s="21"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -15870,8 +17092,10 @@
       <c r="AK306" s="21"/>
       <c r="AL306" s="21"/>
       <c r="AM306" s="21"/>
-    </row>
-    <row r="307" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN306" s="21"/>
+      <c r="AO306" s="21"/>
+    </row>
+    <row r="307" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A307" s="21"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -15911,8 +17135,10 @@
       <c r="AK307" s="21"/>
       <c r="AL307" s="21"/>
       <c r="AM307" s="21"/>
-    </row>
-    <row r="308" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN307" s="21"/>
+      <c r="AO307" s="21"/>
+    </row>
+    <row r="308" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A308" s="21"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
@@ -15952,8 +17178,10 @@
       <c r="AK308" s="21"/>
       <c r="AL308" s="21"/>
       <c r="AM308" s="21"/>
-    </row>
-    <row r="309" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN308" s="21"/>
+      <c r="AO308" s="21"/>
+    </row>
+    <row r="309" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A309" s="21"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
@@ -15993,8 +17221,10 @@
       <c r="AK309" s="21"/>
       <c r="AL309" s="21"/>
       <c r="AM309" s="21"/>
-    </row>
-    <row r="310" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN309" s="21"/>
+      <c r="AO309" s="21"/>
+    </row>
+    <row r="310" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A310" s="21"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
@@ -16034,8 +17264,10 @@
       <c r="AK310" s="21"/>
       <c r="AL310" s="21"/>
       <c r="AM310" s="21"/>
-    </row>
-    <row r="311" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN310" s="21"/>
+      <c r="AO310" s="21"/>
+    </row>
+    <row r="311" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A311" s="21"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
@@ -16075,8 +17307,10 @@
       <c r="AK311" s="21"/>
       <c r="AL311" s="21"/>
       <c r="AM311" s="21"/>
-    </row>
-    <row r="312" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN311" s="21"/>
+      <c r="AO311" s="21"/>
+    </row>
+    <row r="312" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A312" s="21"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
@@ -16116,8 +17350,10 @@
       <c r="AK312" s="21"/>
       <c r="AL312" s="21"/>
       <c r="AM312" s="21"/>
-    </row>
-    <row r="313" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN312" s="21"/>
+      <c r="AO312" s="21"/>
+    </row>
+    <row r="313" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A313" s="21"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
@@ -16157,8 +17393,10 @@
       <c r="AK313" s="21"/>
       <c r="AL313" s="21"/>
       <c r="AM313" s="21"/>
-    </row>
-    <row r="314" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN313" s="21"/>
+      <c r="AO313" s="21"/>
+    </row>
+    <row r="314" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A314" s="21"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
@@ -16198,8 +17436,10 @@
       <c r="AK314" s="21"/>
       <c r="AL314" s="21"/>
       <c r="AM314" s="21"/>
-    </row>
-    <row r="315" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN314" s="21"/>
+      <c r="AO314" s="21"/>
+    </row>
+    <row r="315" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A315" s="21"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
@@ -16239,8 +17479,10 @@
       <c r="AK315" s="21"/>
       <c r="AL315" s="21"/>
       <c r="AM315" s="21"/>
-    </row>
-    <row r="316" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN315" s="21"/>
+      <c r="AO315" s="21"/>
+    </row>
+    <row r="316" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A316" s="21"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
@@ -16280,8 +17522,10 @@
       <c r="AK316" s="21"/>
       <c r="AL316" s="21"/>
       <c r="AM316" s="21"/>
-    </row>
-    <row r="317" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN316" s="21"/>
+      <c r="AO316" s="21"/>
+    </row>
+    <row r="317" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A317" s="21"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
@@ -16321,8 +17565,10 @@
       <c r="AK317" s="21"/>
       <c r="AL317" s="21"/>
       <c r="AM317" s="21"/>
-    </row>
-    <row r="318" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN317" s="21"/>
+      <c r="AO317" s="21"/>
+    </row>
+    <row r="318" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A318" s="21"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -16362,8 +17608,10 @@
       <c r="AK318" s="21"/>
       <c r="AL318" s="21"/>
       <c r="AM318" s="21"/>
-    </row>
-    <row r="319" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN318" s="21"/>
+      <c r="AO318" s="21"/>
+    </row>
+    <row r="319" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A319" s="21"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
@@ -16403,8 +17651,10 @@
       <c r="AK319" s="21"/>
       <c r="AL319" s="21"/>
       <c r="AM319" s="21"/>
-    </row>
-    <row r="320" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN319" s="21"/>
+      <c r="AO319" s="21"/>
+    </row>
+    <row r="320" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A320" s="21"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
@@ -16444,8 +17694,10 @@
       <c r="AK320" s="21"/>
       <c r="AL320" s="21"/>
       <c r="AM320" s="21"/>
-    </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN320" s="21"/>
+      <c r="AO320" s="21"/>
+    </row>
+    <row r="321" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A321" s="21"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -16485,8 +17737,10 @@
       <c r="AK321" s="21"/>
       <c r="AL321" s="21"/>
       <c r="AM321" s="21"/>
-    </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN321" s="21"/>
+      <c r="AO321" s="21"/>
+    </row>
+    <row r="322" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A322" s="21"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
@@ -16526,8 +17780,10 @@
       <c r="AK322" s="21"/>
       <c r="AL322" s="21"/>
       <c r="AM322" s="21"/>
-    </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN322" s="21"/>
+      <c r="AO322" s="21"/>
+    </row>
+    <row r="323" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A323" s="21"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
@@ -16567,8 +17823,10 @@
       <c r="AK323" s="21"/>
       <c r="AL323" s="21"/>
       <c r="AM323" s="21"/>
-    </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN323" s="21"/>
+      <c r="AO323" s="21"/>
+    </row>
+    <row r="324" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A324" s="21"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
@@ -16608,8 +17866,10 @@
       <c r="AK324" s="21"/>
       <c r="AL324" s="21"/>
       <c r="AM324" s="21"/>
-    </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN324" s="21"/>
+      <c r="AO324" s="21"/>
+    </row>
+    <row r="325" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A325" s="21"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
@@ -16649,8 +17909,10 @@
       <c r="AK325" s="21"/>
       <c r="AL325" s="21"/>
       <c r="AM325" s="21"/>
-    </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN325" s="21"/>
+      <c r="AO325" s="21"/>
+    </row>
+    <row r="326" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A326" s="21"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
@@ -16690,8 +17952,10 @@
       <c r="AK326" s="21"/>
       <c r="AL326" s="21"/>
       <c r="AM326" s="21"/>
-    </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN326" s="21"/>
+      <c r="AO326" s="21"/>
+    </row>
+    <row r="327" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A327" s="21"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
@@ -16731,8 +17995,10 @@
       <c r="AK327" s="21"/>
       <c r="AL327" s="21"/>
       <c r="AM327" s="21"/>
-    </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN327" s="21"/>
+      <c r="AO327" s="21"/>
+    </row>
+    <row r="328" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A328" s="21"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
@@ -16772,8 +18038,10 @@
       <c r="AK328" s="21"/>
       <c r="AL328" s="21"/>
       <c r="AM328" s="21"/>
-    </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN328" s="21"/>
+      <c r="AO328" s="21"/>
+    </row>
+    <row r="329" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A329" s="21"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
@@ -16813,8 +18081,10 @@
       <c r="AK329" s="21"/>
       <c r="AL329" s="21"/>
       <c r="AM329" s="21"/>
-    </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN329" s="21"/>
+      <c r="AO329" s="21"/>
+    </row>
+    <row r="330" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A330" s="21"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -16854,8 +18124,10 @@
       <c r="AK330" s="21"/>
       <c r="AL330" s="21"/>
       <c r="AM330" s="21"/>
-    </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN330" s="21"/>
+      <c r="AO330" s="21"/>
+    </row>
+    <row r="331" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A331" s="21"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -16895,8 +18167,10 @@
       <c r="AK331" s="21"/>
       <c r="AL331" s="21"/>
       <c r="AM331" s="21"/>
-    </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN331" s="21"/>
+      <c r="AO331" s="21"/>
+    </row>
+    <row r="332" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A332" s="21"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -16936,8 +18210,10 @@
       <c r="AK332" s="21"/>
       <c r="AL332" s="21"/>
       <c r="AM332" s="21"/>
-    </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN332" s="21"/>
+      <c r="AO332" s="21"/>
+    </row>
+    <row r="333" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A333" s="21"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
@@ -16977,8 +18253,10 @@
       <c r="AK333" s="21"/>
       <c r="AL333" s="21"/>
       <c r="AM333" s="21"/>
-    </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN333" s="21"/>
+      <c r="AO333" s="21"/>
+    </row>
+    <row r="334" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A334" s="21"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
@@ -17018,8 +18296,10 @@
       <c r="AK334" s="21"/>
       <c r="AL334" s="21"/>
       <c r="AM334" s="21"/>
-    </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN334" s="21"/>
+      <c r="AO334" s="21"/>
+    </row>
+    <row r="335" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A335" s="21"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
@@ -17059,8 +18339,10 @@
       <c r="AK335" s="21"/>
       <c r="AL335" s="21"/>
       <c r="AM335" s="21"/>
-    </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN335" s="21"/>
+      <c r="AO335" s="21"/>
+    </row>
+    <row r="336" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A336" s="21"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
@@ -17100,8 +18382,10 @@
       <c r="AK336" s="21"/>
       <c r="AL336" s="21"/>
       <c r="AM336" s="21"/>
-    </row>
-    <row r="337" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN336" s="21"/>
+      <c r="AO336" s="21"/>
+    </row>
+    <row r="337" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A337" s="21"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
@@ -17141,8 +18425,10 @@
       <c r="AK337" s="21"/>
       <c r="AL337" s="21"/>
       <c r="AM337" s="21"/>
-    </row>
-    <row r="338" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN337" s="21"/>
+      <c r="AO337" s="21"/>
+    </row>
+    <row r="338" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A338" s="21"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
@@ -17182,8 +18468,10 @@
       <c r="AK338" s="21"/>
       <c r="AL338" s="21"/>
       <c r="AM338" s="21"/>
-    </row>
-    <row r="339" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN338" s="21"/>
+      <c r="AO338" s="21"/>
+    </row>
+    <row r="339" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A339" s="21"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
@@ -17223,8 +18511,10 @@
       <c r="AK339" s="21"/>
       <c r="AL339" s="21"/>
       <c r="AM339" s="21"/>
-    </row>
-    <row r="340" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN339" s="21"/>
+      <c r="AO339" s="21"/>
+    </row>
+    <row r="340" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A340" s="21"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
@@ -17264,8 +18554,10 @@
       <c r="AK340" s="21"/>
       <c r="AL340" s="21"/>
       <c r="AM340" s="21"/>
-    </row>
-    <row r="341" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN340" s="21"/>
+      <c r="AO340" s="21"/>
+    </row>
+    <row r="341" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
@@ -17305,8 +18597,10 @@
       <c r="AK341" s="21"/>
       <c r="AL341" s="21"/>
       <c r="AM341" s="21"/>
-    </row>
-    <row r="342" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN341" s="21"/>
+      <c r="AO341" s="21"/>
+    </row>
+    <row r="342" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A342" s="21"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
@@ -17346,8 +18640,10 @@
       <c r="AK342" s="21"/>
       <c r="AL342" s="21"/>
       <c r="AM342" s="21"/>
-    </row>
-    <row r="343" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN342" s="21"/>
+      <c r="AO342" s="21"/>
+    </row>
+    <row r="343" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A343" s="21"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
@@ -17387,8 +18683,10 @@
       <c r="AK343" s="21"/>
       <c r="AL343" s="21"/>
       <c r="AM343" s="21"/>
-    </row>
-    <row r="344" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN343" s="21"/>
+      <c r="AO343" s="21"/>
+    </row>
+    <row r="344" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A344" s="21"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
@@ -17428,8 +18726,10 @@
       <c r="AK344" s="21"/>
       <c r="AL344" s="21"/>
       <c r="AM344" s="21"/>
-    </row>
-    <row r="345" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN344" s="21"/>
+      <c r="AO344" s="21"/>
+    </row>
+    <row r="345" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A345" s="21"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
@@ -17469,8 +18769,10 @@
       <c r="AK345" s="21"/>
       <c r="AL345" s="21"/>
       <c r="AM345" s="21"/>
-    </row>
-    <row r="346" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN345" s="21"/>
+      <c r="AO345" s="21"/>
+    </row>
+    <row r="346" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A346" s="21"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
@@ -17510,8 +18812,10 @@
       <c r="AK346" s="21"/>
       <c r="AL346" s="21"/>
       <c r="AM346" s="21"/>
-    </row>
-    <row r="347" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN346" s="21"/>
+      <c r="AO346" s="21"/>
+    </row>
+    <row r="347" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A347" s="21"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
@@ -17551,8 +18855,10 @@
       <c r="AK347" s="21"/>
       <c r="AL347" s="21"/>
       <c r="AM347" s="21"/>
-    </row>
-    <row r="348" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN347" s="21"/>
+      <c r="AO347" s="21"/>
+    </row>
+    <row r="348" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A348" s="21"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
@@ -17592,8 +18898,10 @@
       <c r="AK348" s="21"/>
       <c r="AL348" s="21"/>
       <c r="AM348" s="21"/>
-    </row>
-    <row r="349" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN348" s="21"/>
+      <c r="AO348" s="21"/>
+    </row>
+    <row r="349" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A349" s="21"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
@@ -17633,8 +18941,10 @@
       <c r="AK349" s="21"/>
       <c r="AL349" s="21"/>
       <c r="AM349" s="21"/>
-    </row>
-    <row r="350" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN349" s="21"/>
+      <c r="AO349" s="21"/>
+    </row>
+    <row r="350" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A350" s="21"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -17674,8 +18984,10 @@
       <c r="AK350" s="21"/>
       <c r="AL350" s="21"/>
       <c r="AM350" s="21"/>
-    </row>
-    <row r="351" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN350" s="21"/>
+      <c r="AO350" s="21"/>
+    </row>
+    <row r="351" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A351" s="21"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
@@ -17715,8 +19027,10 @@
       <c r="AK351" s="21"/>
       <c r="AL351" s="21"/>
       <c r="AM351" s="21"/>
-    </row>
-    <row r="352" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN351" s="21"/>
+      <c r="AO351" s="21"/>
+    </row>
+    <row r="352" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A352" s="21"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
@@ -17756,8 +19070,10 @@
       <c r="AK352" s="21"/>
       <c r="AL352" s="21"/>
       <c r="AM352" s="21"/>
-    </row>
-    <row r="353" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN352" s="21"/>
+      <c r="AO352" s="21"/>
+    </row>
+    <row r="353" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A353" s="21"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
@@ -17797,8 +19113,10 @@
       <c r="AK353" s="21"/>
       <c r="AL353" s="21"/>
       <c r="AM353" s="21"/>
-    </row>
-    <row r="354" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN353" s="21"/>
+      <c r="AO353" s="21"/>
+    </row>
+    <row r="354" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A354" s="21"/>
       <c r="B354" s="21"/>
       <c r="C354" s="21"/>
@@ -17838,8 +19156,10 @@
       <c r="AK354" s="21"/>
       <c r="AL354" s="21"/>
       <c r="AM354" s="21"/>
-    </row>
-    <row r="355" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN354" s="21"/>
+      <c r="AO354" s="21"/>
+    </row>
+    <row r="355" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A355" s="21"/>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
@@ -17879,8 +19199,10 @@
       <c r="AK355" s="21"/>
       <c r="AL355" s="21"/>
       <c r="AM355" s="21"/>
-    </row>
-    <row r="356" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN355" s="21"/>
+      <c r="AO355" s="21"/>
+    </row>
+    <row r="356" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A356" s="21"/>
       <c r="B356" s="21"/>
       <c r="C356" s="21"/>
@@ -17920,8 +19242,10 @@
       <c r="AK356" s="21"/>
       <c r="AL356" s="21"/>
       <c r="AM356" s="21"/>
-    </row>
-    <row r="357" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN356" s="21"/>
+      <c r="AO356" s="21"/>
+    </row>
+    <row r="357" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A357" s="21"/>
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
@@ -17961,8 +19285,10 @@
       <c r="AK357" s="21"/>
       <c r="AL357" s="21"/>
       <c r="AM357" s="21"/>
-    </row>
-    <row r="358" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN357" s="21"/>
+      <c r="AO357" s="21"/>
+    </row>
+    <row r="358" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A358" s="21"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
@@ -18002,8 +19328,10 @@
       <c r="AK358" s="21"/>
       <c r="AL358" s="21"/>
       <c r="AM358" s="21"/>
-    </row>
-    <row r="359" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN358" s="21"/>
+      <c r="AO358" s="21"/>
+    </row>
+    <row r="359" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A359" s="21"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
@@ -18043,8 +19371,10 @@
       <c r="AK359" s="21"/>
       <c r="AL359" s="21"/>
       <c r="AM359" s="21"/>
-    </row>
-    <row r="360" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN359" s="21"/>
+      <c r="AO359" s="21"/>
+    </row>
+    <row r="360" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A360" s="21"/>
       <c r="B360" s="21"/>
       <c r="C360" s="21"/>
@@ -18084,8 +19414,10 @@
       <c r="AK360" s="21"/>
       <c r="AL360" s="21"/>
       <c r="AM360" s="21"/>
-    </row>
-    <row r="361" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN360" s="21"/>
+      <c r="AO360" s="21"/>
+    </row>
+    <row r="361" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A361" s="21"/>
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
@@ -18125,8 +19457,10 @@
       <c r="AK361" s="21"/>
       <c r="AL361" s="21"/>
       <c r="AM361" s="21"/>
-    </row>
-    <row r="362" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN361" s="21"/>
+      <c r="AO361" s="21"/>
+    </row>
+    <row r="362" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A362" s="21"/>
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
@@ -18166,8 +19500,10 @@
       <c r="AK362" s="21"/>
       <c r="AL362" s="21"/>
       <c r="AM362" s="21"/>
-    </row>
-    <row r="363" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN362" s="21"/>
+      <c r="AO362" s="21"/>
+    </row>
+    <row r="363" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A363" s="21"/>
       <c r="B363" s="21"/>
       <c r="C363" s="21"/>
@@ -18207,8 +19543,10 @@
       <c r="AK363" s="21"/>
       <c r="AL363" s="21"/>
       <c r="AM363" s="21"/>
-    </row>
-    <row r="364" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN363" s="21"/>
+      <c r="AO363" s="21"/>
+    </row>
+    <row r="364" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A364" s="21"/>
       <c r="B364" s="21"/>
       <c r="C364" s="21"/>
@@ -18248,8 +19586,10 @@
       <c r="AK364" s="21"/>
       <c r="AL364" s="21"/>
       <c r="AM364" s="21"/>
-    </row>
-    <row r="365" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN364" s="21"/>
+      <c r="AO364" s="21"/>
+    </row>
+    <row r="365" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A365" s="21"/>
       <c r="B365" s="21"/>
       <c r="C365" s="21"/>
@@ -18289,8 +19629,10 @@
       <c r="AK365" s="21"/>
       <c r="AL365" s="21"/>
       <c r="AM365" s="21"/>
-    </row>
-    <row r="366" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN365" s="21"/>
+      <c r="AO365" s="21"/>
+    </row>
+    <row r="366" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A366" s="21"/>
       <c r="B366" s="21"/>
       <c r="C366" s="21"/>
@@ -18330,8 +19672,10 @@
       <c r="AK366" s="21"/>
       <c r="AL366" s="21"/>
       <c r="AM366" s="21"/>
-    </row>
-    <row r="367" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN366" s="21"/>
+      <c r="AO366" s="21"/>
+    </row>
+    <row r="367" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A367" s="21"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
@@ -18371,8 +19715,10 @@
       <c r="AK367" s="21"/>
       <c r="AL367" s="21"/>
       <c r="AM367" s="21"/>
-    </row>
-    <row r="368" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN367" s="21"/>
+      <c r="AO367" s="21"/>
+    </row>
+    <row r="368" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A368" s="21"/>
       <c r="B368" s="21"/>
       <c r="C368" s="21"/>
@@ -18412,8 +19758,10 @@
       <c r="AK368" s="21"/>
       <c r="AL368" s="21"/>
       <c r="AM368" s="21"/>
-    </row>
-    <row r="369" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN368" s="21"/>
+      <c r="AO368" s="21"/>
+    </row>
+    <row r="369" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A369" s="21"/>
       <c r="B369" s="21"/>
       <c r="C369" s="21"/>
@@ -18453,8 +19801,10 @@
       <c r="AK369" s="21"/>
       <c r="AL369" s="21"/>
       <c r="AM369" s="21"/>
-    </row>
-    <row r="370" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN369" s="21"/>
+      <c r="AO369" s="21"/>
+    </row>
+    <row r="370" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A370" s="21"/>
       <c r="B370" s="21"/>
       <c r="C370" s="21"/>
@@ -18494,8 +19844,10 @@
       <c r="AK370" s="21"/>
       <c r="AL370" s="21"/>
       <c r="AM370" s="21"/>
-    </row>
-    <row r="371" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN370" s="21"/>
+      <c r="AO370" s="21"/>
+    </row>
+    <row r="371" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A371" s="21"/>
       <c r="B371" s="21"/>
       <c r="C371" s="21"/>
@@ -18535,8 +19887,10 @@
       <c r="AK371" s="21"/>
       <c r="AL371" s="21"/>
       <c r="AM371" s="21"/>
-    </row>
-    <row r="372" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN371" s="21"/>
+      <c r="AO371" s="21"/>
+    </row>
+    <row r="372" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A372" s="21"/>
       <c r="B372" s="21"/>
       <c r="C372" s="21"/>
@@ -18576,8 +19930,10 @@
       <c r="AK372" s="21"/>
       <c r="AL372" s="21"/>
       <c r="AM372" s="21"/>
-    </row>
-    <row r="373" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN372" s="21"/>
+      <c r="AO372" s="21"/>
+    </row>
+    <row r="373" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A373" s="21"/>
       <c r="B373" s="21"/>
       <c r="C373" s="21"/>
@@ -18617,8 +19973,10 @@
       <c r="AK373" s="21"/>
       <c r="AL373" s="21"/>
       <c r="AM373" s="21"/>
-    </row>
-    <row r="374" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN373" s="21"/>
+      <c r="AO373" s="21"/>
+    </row>
+    <row r="374" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A374" s="21"/>
       <c r="B374" s="21"/>
       <c r="C374" s="21"/>
@@ -18658,8 +20016,10 @@
       <c r="AK374" s="21"/>
       <c r="AL374" s="21"/>
       <c r="AM374" s="21"/>
-    </row>
-    <row r="375" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN374" s="21"/>
+      <c r="AO374" s="21"/>
+    </row>
+    <row r="375" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A375" s="21"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
@@ -18699,8 +20059,10 @@
       <c r="AK375" s="21"/>
       <c r="AL375" s="21"/>
       <c r="AM375" s="21"/>
-    </row>
-    <row r="376" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN375" s="21"/>
+      <c r="AO375" s="21"/>
+    </row>
+    <row r="376" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A376" s="21"/>
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
@@ -18740,8 +20102,10 @@
       <c r="AK376" s="21"/>
       <c r="AL376" s="21"/>
       <c r="AM376" s="21"/>
-    </row>
-    <row r="377" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN376" s="21"/>
+      <c r="AO376" s="21"/>
+    </row>
+    <row r="377" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A377" s="21"/>
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
@@ -18781,6 +20145,8 @@
       <c r="AK377" s="21"/>
       <c r="AL377" s="21"/>
       <c r="AM377" s="21"/>
+      <c r="AN377" s="21"/>
+      <c r="AO377" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L22" xr:uid="{4B0D68C4-D843-40C9-81FC-A55FF83AA655}">
@@ -18788,30 +20154,30 @@
       <sortCondition ref="A1:A22"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B14 I13:I14 K13:L14 G2:L2 B15:E16 F3:L3 A2:E4 G5:G12 F5:F10 B5:E12 F4:G4 I4:L12 G14:G20 A5:A20 I15:L20 F17:F20 H4:H20 J4:J20">
-    <cfRule type="expression" dxfId="255" priority="176">
+  <conditionalFormatting sqref="B14 I13:I14 K13:L14 B15:E16 A2:E4 G5:G12 F5:F10 B5:E12 F4:G4 I4:L12 G14:G20 A5:A20 I15:L20 F17:F20 H4:H20 J4:J20 G2:N2 F3:N3 N4:N20">
+    <cfRule type="expression" dxfId="261" priority="196">
       <formula>$K2="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="177">
+    <cfRule type="expression" dxfId="260" priority="197">
       <formula>$K2="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="178">
+    <cfRule type="expression" dxfId="259" priority="198">
       <formula>AND($I2&lt;TODAY(), $K2&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:E17">
-    <cfRule type="expression" dxfId="252" priority="163">
+    <cfRule type="expression" dxfId="258" priority="183">
       <formula>$K17="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="164">
+    <cfRule type="expression" dxfId="257" priority="184">
       <formula>$K17="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="165">
+    <cfRule type="expression" dxfId="256" priority="185">
       <formula>AND($I17&lt;TODAY(), $K17&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="dataBar" priority="166">
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18825,18 +20191,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:E18">
-    <cfRule type="expression" dxfId="249" priority="155">
+    <cfRule type="expression" dxfId="255" priority="175">
       <formula>$K18="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="156">
+    <cfRule type="expression" dxfId="254" priority="176">
       <formula>$K18="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="157">
+    <cfRule type="expression" dxfId="253" priority="177">
       <formula>AND($I18&lt;TODAY(), $K18&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18">
-    <cfRule type="dataBar" priority="158">
+    <cfRule type="dataBar" priority="178">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18850,18 +20216,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19">
-    <cfRule type="expression" dxfId="246" priority="151">
+    <cfRule type="expression" dxfId="252" priority="171">
       <formula>$K19="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="152">
+    <cfRule type="expression" dxfId="251" priority="172">
       <formula>$K19="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="153">
+    <cfRule type="expression" dxfId="250" priority="173">
       <formula>AND($I19&lt;TODAY(), $K19&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="174">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18875,18 +20241,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:E20">
-    <cfRule type="expression" dxfId="243" priority="139">
+    <cfRule type="expression" dxfId="249" priority="159">
       <formula>$K20="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="140">
+    <cfRule type="expression" dxfId="248" priority="160">
       <formula>$K20="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="141">
+    <cfRule type="expression" dxfId="247" priority="161">
       <formula>AND($I20&lt;TODAY(), $K20&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="dataBar" priority="142">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18900,18 +20266,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="240" priority="118">
+    <cfRule type="expression" dxfId="246" priority="138">
       <formula>$K5="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="119">
+    <cfRule type="expression" dxfId="245" priority="139">
       <formula>$K5="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="120">
+    <cfRule type="expression" dxfId="244" priority="140">
       <formula>AND($I5&lt;TODAY(), $K5&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="dataBar" priority="121">
+    <cfRule type="dataBar" priority="141">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18925,18 +20291,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="expression" dxfId="237" priority="114">
+    <cfRule type="expression" dxfId="243" priority="134">
       <formula>$K6="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="115">
+    <cfRule type="expression" dxfId="242" priority="135">
       <formula>$K6="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="116">
+    <cfRule type="expression" dxfId="241" priority="136">
       <formula>AND($I6&lt;TODAY(), $K6&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="dataBar" priority="117">
+    <cfRule type="dataBar" priority="137">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18950,18 +20316,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="234" priority="110">
+    <cfRule type="expression" dxfId="240" priority="130">
       <formula>$K7="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="111">
+    <cfRule type="expression" dxfId="239" priority="131">
       <formula>$K7="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="112">
+    <cfRule type="expression" dxfId="238" priority="132">
       <formula>AND($I7&lt;TODAY(), $K7&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="133">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18975,18 +20341,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="231" priority="106">
+    <cfRule type="expression" dxfId="237" priority="126">
       <formula>$K8="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="107">
+    <cfRule type="expression" dxfId="236" priority="127">
       <formula>$K8="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="108">
+    <cfRule type="expression" dxfId="235" priority="128">
       <formula>AND($I8&lt;TODAY(), $K8&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="dataBar" priority="109">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19000,18 +20366,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="228" priority="102">
+    <cfRule type="expression" dxfId="234" priority="122">
       <formula>$K9="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="103">
+    <cfRule type="expression" dxfId="233" priority="123">
       <formula>$K9="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="104">
+    <cfRule type="expression" dxfId="232" priority="124">
       <formula>AND($I9&lt;TODAY(), $K9&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19025,18 +20391,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="225" priority="98">
+    <cfRule type="expression" dxfId="231" priority="118">
       <formula>$K10="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="99">
+    <cfRule type="expression" dxfId="230" priority="119">
       <formula>$K10="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="100">
+    <cfRule type="expression" dxfId="229" priority="120">
       <formula>AND($I10&lt;TODAY(), $K10&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="121">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19050,18 +20416,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="222" priority="94">
+    <cfRule type="expression" dxfId="228" priority="114">
       <formula>$K11="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="95">
+    <cfRule type="expression" dxfId="227" priority="115">
       <formula>$K11="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="96">
+    <cfRule type="expression" dxfId="226" priority="116">
       <formula>AND($I11&lt;TODAY(), $K11&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19075,18 +20441,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="219" priority="90">
+    <cfRule type="expression" dxfId="225" priority="110">
       <formula>$K12="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="91">
+    <cfRule type="expression" dxfId="224" priority="111">
       <formula>$K12="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="92">
+    <cfRule type="expression" dxfId="223" priority="112">
       <formula>AND($I12&lt;TODAY(), $K12&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19100,40 +20466,40 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="expression" dxfId="216" priority="75">
+    <cfRule type="expression" dxfId="222" priority="95">
       <formula>$K16="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="76">
+    <cfRule type="expression" dxfId="221" priority="96">
       <formula>$K16="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="77">
+    <cfRule type="expression" dxfId="220" priority="97">
       <formula>AND($I16&lt;TODAY(), $K16&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:E13 G13 J13">
-    <cfRule type="expression" dxfId="213" priority="67">
+    <cfRule type="expression" dxfId="219" priority="87">
       <formula>$K13="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="68">
+    <cfRule type="expression" dxfId="218" priority="88">
       <formula>$K13="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="69">
+    <cfRule type="expression" dxfId="217" priority="89">
       <formula>AND($I13&lt;TODAY(), $K13&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="expression" dxfId="210" priority="57">
+    <cfRule type="expression" dxfId="216" priority="77">
       <formula>$K13="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="58">
+    <cfRule type="expression" dxfId="215" priority="78">
       <formula>$K13="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="59">
+    <cfRule type="expression" dxfId="214" priority="79">
       <formula>AND($I13&lt;TODAY(), $K13&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19147,7 +20513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19161,29 +20527,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:E14">
-    <cfRule type="expression" dxfId="207" priority="53">
+    <cfRule type="expression" dxfId="213" priority="73">
       <formula>$K14="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="54">
+    <cfRule type="expression" dxfId="212" priority="74">
       <formula>$K14="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="55">
+    <cfRule type="expression" dxfId="211" priority="75">
       <formula>AND($I14&lt;TODAY(), $K14&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="204" priority="49">
+    <cfRule type="expression" dxfId="210" priority="69">
       <formula>$K14="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="50">
+    <cfRule type="expression" dxfId="209" priority="70">
       <formula>$K14="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="51">
+    <cfRule type="expression" dxfId="208" priority="71">
       <formula>AND($I14&lt;TODAY(), $K14&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19197,7 +20563,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="dataBar" priority="48">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19211,73 +20577,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="201" priority="33">
+    <cfRule type="expression" dxfId="207" priority="53">
       <formula>$K11="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="34">
+    <cfRule type="expression" dxfId="206" priority="54">
       <formula>$K11="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="35">
+    <cfRule type="expression" dxfId="205" priority="55">
       <formula>AND($I11&lt;TODAY(), $K11&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="expression" dxfId="198" priority="30">
+    <cfRule type="expression" dxfId="204" priority="50">
       <formula>$K12="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="31">
+    <cfRule type="expression" dxfId="203" priority="51">
       <formula>$K12="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="32">
+    <cfRule type="expression" dxfId="202" priority="52">
       <formula>AND($I12&lt;TODAY(), $K12&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="expression" dxfId="195" priority="27">
+    <cfRule type="expression" dxfId="201" priority="47">
       <formula>$K13="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="28">
+    <cfRule type="expression" dxfId="200" priority="48">
       <formula>$K13="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="29">
+    <cfRule type="expression" dxfId="199" priority="49">
       <formula>AND($I13&lt;TODAY(), $K13&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="192" priority="24">
+    <cfRule type="expression" dxfId="198" priority="44">
       <formula>$K14="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="25">
+    <cfRule type="expression" dxfId="197" priority="45">
       <formula>$K14="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="26">
+    <cfRule type="expression" dxfId="196" priority="46">
       <formula>AND($I14&lt;TODAY(), $K14&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="expression" dxfId="189" priority="21">
+    <cfRule type="expression" dxfId="195" priority="41">
       <formula>$K15="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="22">
+    <cfRule type="expression" dxfId="194" priority="42">
       <formula>$K15="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="23">
+    <cfRule type="expression" dxfId="193" priority="43">
       <formula>AND($I15&lt;TODAY(), $K15&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="expression" dxfId="186" priority="12">
+    <cfRule type="expression" dxfId="192" priority="32">
       <formula>$K2="WIP"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="13">
+    <cfRule type="expression" dxfId="191" priority="33">
       <formula>$K2="DONE"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="14">
+    <cfRule type="expression" dxfId="190" priority="34">
       <formula>AND($I2&lt;TODAY(), $K2&lt;&gt;"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J20">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19291,7 +20657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J20">
-    <cfRule type="dataBar" priority="1051">
+    <cfRule type="dataBar" priority="1071">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19305,7 +20671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J12 J2 J15:J20">
-    <cfRule type="dataBar" priority="1052">
+    <cfRule type="dataBar" priority="1072">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19319,7 +20685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J20">
-    <cfRule type="dataBar" priority="1055">
+    <cfRule type="dataBar" priority="1075">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19332,15 +20698,216 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A75B98F0-4789-434F-8267-7C6E2DF20863}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB559629-97C9-45C9-8496-40A6E17F4C9C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DAF64A91-4B06-4A44-B3CE-F4044974F389}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{388A7C54-2A7C-48ED-AFAD-C2EC5041C07E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BA74D858-4CFE-4069-8987-BE07C60309F2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27F14650-3700-4D43-93F7-BA451CC2B414}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="expression" dxfId="189" priority="12">
+      <formula>$K4="WIP"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="13">
+      <formula>$K4="DONE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="14">
+      <formula>AND($I4&lt;TODAY(), $K4&lt;&gt;"Done")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A04824D7-E973-4BE1-82E7-B4200BA55DCF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73314550-1309-420D-99D9-20914DB67589}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F5018A0C-A04D-4168-98E2-A129006B491A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8FA0388F-D2E1-4F06-9FC8-0E26D518F394}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="expression" dxfId="186" priority="5">
+      <formula>$K4="WIP"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="185" priority="6">
+      <formula>$K4="DONE"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="7">
+      <formula>AND($I4&lt;TODAY(), $K4&lt;&gt;"Done")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9913D462-6402-41FE-933D-C4DB54E44CEC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7950FAD4-8180-41F1-947D-B8693179C6E8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M20">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{977E3972-4F2D-4E44-8917-9B5E422C2F58}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A21:A36" xr:uid="{A88869B1-0DE2-494C-85BE-6EFFE6A802D4}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A37:A45 H37:L45" xr:uid="{E849F482-0692-42ED-8D8B-DD1D2F17DE85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A37:A45 H37:N45" xr:uid="{E849F482-0692-42ED-8D8B-DD1D2F17DE85}">
       <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21:K36" xr:uid="{4AE298E9-3DEA-453B-8C4C-25A9DAA7C614}">
-      <formula1>$O$1:$O$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K20" xr:uid="{75F58712-0605-4924-9E64-DE1E7B8D8F86}">
       <formula1>"ToDo,WIP,Done"</formula1>
@@ -19348,6 +20915,9 @@
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20" xr:uid="{774F955B-8FCB-4DF9-9C5C-7BD979EF2943}">
       <formula1>1</formula1>
       <formula2>366</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21:K36" xr:uid="{4AE298E9-3DEA-453B-8C4C-25A9DAA7C614}">
+      <formula1>$Q$3:$Q$3</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -19585,6 +21155,149 @@
           </x14:cfRule>
           <xm:sqref>J3:J20</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A75B98F0-4789-434F-8267-7C6E2DF20863}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB559629-97C9-45C9-8496-40A6E17F4C9C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DAF64A91-4B06-4A44-B3CE-F4044974F389}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{388A7C54-2A7C-48ED-AFAD-C2EC5041C07E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA74D858-4CFE-4069-8987-BE07C60309F2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27F14650-3700-4D43-93F7-BA451CC2B414}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A04824D7-E973-4BE1-82E7-B4200BA55DCF}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73314550-1309-420D-99D9-20914DB67589}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F5018A0C-A04D-4168-98E2-A129006B491A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8FA0388F-D2E1-4F06-9FC8-0E26D518F394}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M2:M20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9913D462-6402-41FE-933D-C4DB54E44CEC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7950FAD4-8180-41F1-947D-B8693179C6E8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{977E3972-4F2D-4E44-8917-9B5E422C2F58}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M4:M20</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -19593,10 +21306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADE4DC3-25AA-4130-A821-DF7E2D94A60D}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19613,11 +21326,11 @@
     <col min="11" max="11" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="84.5546875" style="21" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="21" customWidth="1"/>
+    <col min="14" max="14" width="4.21875" style="21" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="35" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="34" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -19657,58 +21370,57 @@
       <c r="M1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="28">
-        <f>variables!B2</f>
-        <v>4</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+    </row>
+    <row r="2" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>1</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>120</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <f t="shared" ref="F2:F10" si="0">D2*(E2/60)</f>
         <v>2</v>
       </c>
-      <c r="G2" s="32">
-        <f t="shared" ref="G2:G13" si="1">CEILING(F2/$N$1,1)</f>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G13" si="1">CEILING(F2/$O$3,1)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="32">
         <v>44105</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="32">
         <f t="shared" ref="I2:I12" si="2">H2+(G2-1)</f>
         <v>44105</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="33">
         <f>100*C2/D2</f>
         <v>100</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="20">
         <f>CEILING(D2/G2,1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -19753,8 +21465,15 @@
         <f t="shared" ref="M3:M12" si="3">CEILING(D3/G3,1)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" s="16">
+        <f>variables!B2</f>
+        <v>4</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>2</v>
       </c>
@@ -19801,7 +21520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>3</v>
       </c>
@@ -19848,7 +21567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -19895,7 +21614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>5</v>
       </c>
@@ -19942,7 +21661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>6</v>
       </c>
@@ -19989,7 +21708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>7</v>
       </c>
@@ -20036,7 +21755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>8</v>
       </c>
@@ -20083,7 +21802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>9</v>
       </c>
@@ -20130,7 +21849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>10</v>
       </c>
@@ -20174,7 +21893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -20194,7 +21913,7 @@
       <c r="K13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -20712,9 +22431,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K28" xr:uid="{25481CCB-7D12-40BC-97EB-FC5B7C2EC2C6}">
-      <formula1>$O$1:$O$1</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H29:L37 A13:A37" xr:uid="{1FE0E1EE-A246-47DF-A5BB-416ECF68F7A0}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -20724,6 +22440,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K12" xr:uid="{5C3173B6-B5F1-46CD-B7AE-7B1E6F504645}">
       <formula1>"ToDo,WIP,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13:K28" xr:uid="{25481CCB-7D12-40BC-97EB-FC5B7C2EC2C6}">
+      <formula1>$O$2:$O$2</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/temp/ALP-2020.xlsx
+++ b/temp/ALP-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D2C12-6FD8-4A7C-9D18-858D18D50549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE924B6B-4E70-4FC3-BD51-67AC8E1598C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="QLP - Q4" sheetId="15" r:id="rId2"/>
     <sheet name="variables" sheetId="13" r:id="rId3"/>
     <sheet name="ALP-2020" sheetId="5" r:id="rId4"/>
+    <sheet name="5 year Experience" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ALP-2020'!$A$6:$L$6</definedName>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="118">
   <si>
     <t>Course Name</t>
   </si>
@@ -392,6 +393,87 @@
   <si>
     <t>status</t>
   </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Goldman sachs</t>
+  </si>
+  <si>
+    <t>JPMC</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Juniper Networks</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>DE Shaw</t>
+  </si>
+  <si>
+    <t>Thoughtworks</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Tower Research</t>
+  </si>
+  <si>
+    <t>Inmobi</t>
+  </si>
+  <si>
+    <t>Codenation </t>
+  </si>
+  <si>
+    <t>Nutanix </t>
+  </si>
+  <si>
+    <t>Directi</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Hortonworks </t>
+  </si>
+  <si>
+    <t>WalmartLabs</t>
+  </si>
 </sst>
 </file>
 
@@ -609,7 +691,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +777,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -768,6 +868,21 @@
       <top/>
       <bottom style="thick">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,7 +969,7 @@
     </xf>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -938,6 +1053,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -3219,13 +3357,13 @@
   <dimension ref="A1:AO377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
@@ -3371,7 +3509,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="28">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D3" s="28">
         <v>453</v>
@@ -3395,8 +3533,8 @@
         <v>44022</v>
       </c>
       <c r="J3" s="33">
-        <f t="shared" ref="J3:J10" si="3">100*C3/D3</f>
-        <v>11.037527593818984</v>
+        <f t="shared" ref="J3:J20" si="3">100*C3/D3</f>
+        <v>18.322295805739515</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>52</v>
@@ -3406,10 +3544,10 @@
       </c>
       <c r="M3" s="33">
         <f>100*N3/O3</f>
-        <v>8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="N3" s="38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O20" si="4">CEILING(D3/G3,1)</f>
@@ -3536,24 +3674,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C5" s="22">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5" s="22">
-        <v>42</v>
+        <v>450</v>
       </c>
       <c r="E5" s="22">
         <v>10</v>
       </c>
       <c r="F5" s="24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="G5" s="25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H5" s="23">
         <f t="shared" si="5"/>
@@ -3561,28 +3699,26 @@
       </c>
       <c r="I5" s="23">
         <f t="shared" si="2"/>
-        <v>44027</v>
+        <v>44044</v>
       </c>
       <c r="J5" s="26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8888888888888888</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="L5" s="21"/>
       <c r="M5" s="26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>54.166666666666664</v>
       </c>
       <c r="N5" s="39">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -3616,32 +3752,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="22">
         <v>0</v>
       </c>
       <c r="D6" s="22">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E6" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="24">
         <f t="shared" si="0"/>
-        <v>16.8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="23">
         <f t="shared" si="5"/>
-        <v>44028</v>
+        <v>44045</v>
       </c>
       <c r="I6" s="23">
         <f t="shared" si="2"/>
-        <v>44032</v>
+        <v>44046</v>
       </c>
       <c r="J6" s="26">
         <f t="shared" si="3"/>
@@ -3651,7 +3787,7 @@
         <v>53</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6" s="26">
         <f t="shared" si="6"/>
@@ -3662,7 +3798,7 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -3696,32 +3832,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C7" s="22">
         <v>0</v>
       </c>
       <c r="D7" s="22">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c r="E7" s="22">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F7" s="24">
         <f t="shared" si="0"/>
-        <v>31.866666666666667</v>
+        <v>16.8</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="23">
         <f t="shared" si="5"/>
-        <v>44033</v>
+        <v>44047</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" si="2"/>
-        <v>44040</v>
+        <v>44051</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" si="3"/>
@@ -3731,7 +3867,7 @@
         <v>53</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M7" s="26">
         <f t="shared" si="6"/>
@@ -3742,7 +3878,7 @@
       </c>
       <c r="O7" s="20">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -3776,32 +3912,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C8" s="22">
         <v>0</v>
       </c>
       <c r="D8" s="22">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="E8" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>31.866666666666667</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" si="5"/>
-        <v>44041</v>
+        <v>44052</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>44045</v>
+        <v>44059</v>
       </c>
       <c r="J8" s="26">
         <f t="shared" si="3"/>
@@ -3810,7 +3946,9 @@
       <c r="K8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="M8" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3820,7 +3958,7 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
@@ -3854,32 +3992,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="22">
         <v>0</v>
       </c>
       <c r="D9" s="22">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E9" s="22">
         <v>10</v>
       </c>
       <c r="F9" s="24">
         <f t="shared" si="0"/>
-        <v>9.3333333333333321</v>
+        <v>17</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="5"/>
-        <v>44046</v>
+        <v>44060</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>44048</v>
+        <v>44064</v>
       </c>
       <c r="J9" s="26">
         <f t="shared" si="3"/>
@@ -3898,7 +4036,7 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -3932,32 +4070,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="22">
         <v>0</v>
       </c>
       <c r="D10" s="22">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E10" s="22">
         <v>10</v>
       </c>
       <c r="F10" s="24">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>9.3333333333333321</v>
       </c>
       <c r="G10" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="23">
         <f t="shared" si="5"/>
-        <v>44049</v>
+        <v>44065</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>44049</v>
+        <v>44067</v>
       </c>
       <c r="J10" s="26">
         <f t="shared" si="3"/>
@@ -3976,7 +4114,7 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
@@ -4010,20 +4148,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="22">
         <v>0</v>
       </c>
       <c r="D11" s="22">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E11" s="22">
         <v>10</v>
       </c>
       <c r="F11" s="24">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="1"/>
@@ -4031,14 +4169,14 @@
       </c>
       <c r="H11" s="23">
         <f t="shared" si="5"/>
-        <v>44050</v>
+        <v>44068</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>44050</v>
+        <v>44068</v>
       </c>
       <c r="J11" s="26">
-        <f t="shared" ref="J11:J20" si="7">100*C11/D11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="21" t="s">
@@ -4054,7 +4192,7 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
@@ -4088,20 +4226,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="22">
         <v>0</v>
       </c>
       <c r="D12" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" s="22">
         <v>10</v>
       </c>
       <c r="F12" s="24">
         <f t="shared" si="0"/>
-        <v>0.83333333333333326</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G12" s="25">
         <f t="shared" si="1"/>
@@ -4109,14 +4247,14 @@
       </c>
       <c r="H12" s="23">
         <f t="shared" si="5"/>
-        <v>44051</v>
+        <v>44069</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>44051</v>
+        <v>44069</v>
       </c>
       <c r="J12" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="21" t="s">
@@ -4132,7 +4270,7 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
@@ -4166,20 +4304,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="22">
         <v>0</v>
       </c>
       <c r="D13" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13" s="22">
         <v>10</v>
       </c>
       <c r="F13" s="24">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="G13" s="25">
         <f t="shared" si="1"/>
@@ -4187,14 +4325,14 @@
       </c>
       <c r="H13" s="23">
         <f t="shared" si="5"/>
-        <v>44052</v>
+        <v>44070</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="2"/>
-        <v>44052</v>
+        <v>44070</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="21" t="s">
@@ -4210,7 +4348,7 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
@@ -4244,35 +4382,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="22">
         <v>0</v>
       </c>
       <c r="D14" s="22">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="E14" s="22">
         <v>10</v>
       </c>
       <c r="F14" s="24">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H14" s="23">
         <f t="shared" si="5"/>
-        <v>44053</v>
+        <v>44071</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="2"/>
-        <v>44061</v>
+        <v>44071</v>
       </c>
       <c r="J14" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="21" t="s">
@@ -4288,7 +4426,7 @@
       </c>
       <c r="O14" s="20">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
@@ -4322,35 +4460,35 @@
         <v>14</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="22">
         <v>0</v>
       </c>
       <c r="D15" s="22">
-        <v>2</v>
+        <v>204</v>
       </c>
       <c r="E15" s="22">
         <v>10</v>
       </c>
       <c r="F15" s="24">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>34</v>
       </c>
       <c r="G15" s="25">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H15" s="23">
         <f t="shared" si="5"/>
-        <v>44062</v>
+        <v>44072</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>44062</v>
+        <v>44080</v>
       </c>
       <c r="J15" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="21" t="s">
@@ -4366,7 +4504,7 @@
       </c>
       <c r="O15" s="20">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -4400,35 +4538,35 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="22">
         <v>0</v>
       </c>
       <c r="D16" s="22">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E16" s="22">
         <v>10</v>
       </c>
       <c r="F16" s="24">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G16" s="25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="5"/>
-        <v>44063</v>
+        <v>44081</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>44064</v>
+        <v>44081</v>
       </c>
       <c r="J16" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="21" t="s">
@@ -4444,7 +4582,7 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -4478,43 +4616,41 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C17" s="22">
         <v>0</v>
       </c>
       <c r="D17" s="22">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="E17" s="22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="24">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H17" s="23">
         <f t="shared" si="5"/>
-        <v>44065</v>
+        <v>44082</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>44074</v>
+        <v>44083</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="L17" s="27"/>
       <c r="M17" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4524,7 +4660,7 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
@@ -4558,35 +4694,35 @@
         <v>17</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="22">
         <v>0</v>
       </c>
       <c r="D18" s="22">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="E18" s="22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" s="24">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="5"/>
-        <v>44075</v>
+        <v>44084</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>44082</v>
+        <v>44093</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="21" t="s">
@@ -4604,7 +4740,7 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
@@ -4638,41 +4774,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C19" s="22">
         <v>0</v>
       </c>
       <c r="D19" s="22">
-        <v>450</v>
+        <v>174</v>
       </c>
       <c r="E19" s="22">
         <v>10</v>
       </c>
       <c r="F19" s="24">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="5"/>
-        <v>44083</v>
+        <v>44094</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
         <v>44101</v>
       </c>
       <c r="J19" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="M19" s="26">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4682,7 +4820,7 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -4744,7 +4882,7 @@
         <v>44107</v>
       </c>
       <c r="J20" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="21" t="s">
@@ -20154,7 +20292,7 @@
       <sortCondition ref="A1:A22"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="B14 I13:I14 K13:L14 B15:E16 A2:E4 G5:G12 F5:F10 B5:E12 F4:G4 I4:L12 G14:G20 A5:A20 I15:L20 F17:F20 H4:H20 J4:J20 G2:N2 F3:N3 N4:N20">
+  <conditionalFormatting sqref="B14 I13:I14 K13:L14 B15:E16 A2:E4 G5:G12 F5:F10 B5:E12 F4:G4 I4:L12 G14:G20 I15:L20 F17:F20 H4:H20 J4:J20 G2:N2 F3:N3 N4:N20 A5:A20">
     <cfRule type="expression" dxfId="261" priority="196">
       <formula>$K2="WIP"</formula>
     </cfRule>
@@ -20921,13 +21059,13 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" display="https://www.youtube.com/user/mycodeschool/playlists" xr:uid="{47D28EBF-F8ED-4F89-8DC3-10D86F30D714}"/>
+    <hyperlink ref="L6" r:id="rId1" display="https://www.youtube.com/user/mycodeschool/playlists" xr:uid="{47D28EBF-F8ED-4F89-8DC3-10D86F30D714}"/>
     <hyperlink ref="L4" r:id="rId2" display="https://www.youtube.com/user/koushks/playlists" xr:uid="{A5145AD2-C53E-44A6-B0D7-8DEB40F9A0EC}"/>
-    <hyperlink ref="L6" r:id="rId3" display="https://www.youtube.com/watch?v=0IAPZzGSbME&amp;list=PLDN4rrl48XKpZkf03iYFl-O29szjTrs_O " xr:uid="{7CA97D2D-4CBC-4AFF-BA85-9270AB0A1EDB}"/>
-    <hyperlink ref="L18" r:id="rId4" display="https://www.youtube.com/channel/UC0RhatS1pyxInC00YKjjBqQ/playlists" xr:uid="{ECB8CAD6-EA20-4E08-ACA4-34FC048F4B6B}"/>
-    <hyperlink ref="L17" r:id="rId5" display="https://www.youtube.com/channel/UC0RhatS1pyxInC00YKjjBqQ/playlists" xr:uid="{6141A48E-F011-4B8E-B150-650618A6D3CE}"/>
+    <hyperlink ref="L7" r:id="rId3" display="https://www.youtube.com/watch?v=0IAPZzGSbME&amp;list=PLDN4rrl48XKpZkf03iYFl-O29szjTrs_O " xr:uid="{7CA97D2D-4CBC-4AFF-BA85-9270AB0A1EDB}"/>
+    <hyperlink ref="L19" r:id="rId4" display="https://www.youtube.com/channel/UC0RhatS1pyxInC00YKjjBqQ/playlists" xr:uid="{ECB8CAD6-EA20-4E08-ACA4-34FC048F4B6B}"/>
+    <hyperlink ref="L18" r:id="rId5" display="https://www.youtube.com/channel/UC0RhatS1pyxInC00YKjjBqQ/playlists" xr:uid="{6141A48E-F011-4B8E-B150-650618A6D3CE}"/>
     <hyperlink ref="L20" r:id="rId6" xr:uid="{8F20AD00-2399-453B-BB62-C2381878A59A}"/>
-    <hyperlink ref="L7" r:id="rId7" xr:uid="{2327CA50-1721-4C2A-BCEC-CD41BC11E316}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{2327CA50-1721-4C2A-BCEC-CD41BC11E316}"/>
     <hyperlink ref="L3" r:id="rId8" xr:uid="{7D301662-5D47-42CF-BF78-A93ACF70D147}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26292,4 +26430,313 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C169A1DF-EC51-452C-9C23-653576CF00DD}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" style="42" customWidth="1"/>
+    <col min="2" max="2" width="16" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="45"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="45"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="45"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="45"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="45"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="45"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="45"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="45"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp/ALP-2020.xlsx
+++ b/temp/ALP-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE924B6B-4E70-4FC3-BD51-67AC8E1598C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61518D0A-FE57-4EDF-896D-8165E415ED00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3357,7 +3357,7 @@
   <dimension ref="A1:AO377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3677,7 +3677,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="22">
         <v>450</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="J5" s="26">
         <f t="shared" si="3"/>
-        <v>2.8888888888888888</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>53</v>
@@ -3711,10 +3711,10 @@
       <c r="L5" s="21"/>
       <c r="M5" s="26">
         <f t="shared" si="6"/>
-        <v>54.166666666666664</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="N5" s="39">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O5" s="20">
         <f t="shared" si="4"/>

--- a/temp/ALP-2020.xlsx
+++ b/temp/ALP-2020.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC4BD1-2577-46C3-AD45-04C3E3B62D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1D57DC-6222-425B-A48A-1EB1DE6D22EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-Q4" sheetId="19" r:id="rId1"/>
     <sheet name="ALP-2020" sheetId="5" r:id="rId2"/>
     <sheet name="5 YOE" sheetId="17" r:id="rId3"/>
+    <sheet name="Jobs Apply Daily" sheetId="20" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020-Q4'!$A$1:$O$1</definedName>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="150">
   <si>
     <t>Course Name</t>
   </si>
@@ -556,6 +557,9 @@
   <si>
     <t>HackerRank - Algo - Debugging</t>
   </si>
+  <si>
+    <t>Barclays</t>
+  </si>
 </sst>
 </file>
 
@@ -567,10 +571,17 @@
     <numFmt numFmtId="166" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -734,6 +745,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -858,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -966,130 +985,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" applyFill="0" applyProtection="0">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" applyFill="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" applyFill="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyFill="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1098,13 +1129,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1113,23 +1144,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1137,13 +1168,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1152,13 +1183,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
@@ -1167,14 +1198,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,13 +1213,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,18 +1227,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="9" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,13 +1246,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1232,8 +1263,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1241,19 +1272,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="11" xfId="32" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="33">
     <cellStyle name="Actors" xfId="4" xr:uid="{F29AF49B-AECA-4627-BA36-AD142BDCC4FF}"/>
     <cellStyle name="Calendar Year" xfId="26" xr:uid="{394A4C9C-43F7-423E-8CF3-FC6165EFD370}"/>
     <cellStyle name="Date" xfId="21" xr:uid="{64E2D68E-B0B8-43FC-9273-604D3431D0FF}"/>
@@ -1286,6 +1319,7 @@
     <cellStyle name="Title 2" xfId="14" xr:uid="{7992DF19-694A-42F6-941C-5AA191679327}"/>
     <cellStyle name="Title 3" xfId="24" xr:uid="{A2191916-F69B-4126-9A33-C1ADE48F76A0}"/>
     <cellStyle name="Title 4" xfId="27" xr:uid="{A857FE3C-F4FC-48BB-85F4-E88AEBE74528}"/>
+    <cellStyle name="Total" xfId="32" builtinId="25"/>
   </cellStyles>
   <dxfs count="665">
     <dxf>
@@ -6303,8 +6337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CAFD19-B19C-4DCB-8111-13912A3BF581}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6470,7 +6504,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="91">
         <v>5</v>
@@ -6496,10 +6530,10 @@
       </c>
       <c r="J4" s="95">
         <f>100*C4/D4</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K4" s="91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L4" s="96"/>
       <c r="M4" s="97">
@@ -6516,7 +6550,7 @@
         <v>120</v>
       </c>
       <c r="C5" s="90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="91">
         <v>5</v>
@@ -6542,10 +6576,10 @@
       </c>
       <c r="J5" s="95">
         <f>100*C5/D5</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K5" s="91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" s="96"/>
       <c r="M5" s="97">
@@ -6591,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" s="96"/>
       <c r="M6" s="97">
@@ -7067,7 +7101,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="98">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6">
         <v>6</v>
@@ -7093,10 +7127,10 @@
       </c>
       <c r="J17" s="101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="102" t="s">
         <v>22</v>
@@ -7118,7 +7152,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18" s="6">
         <v>15</v>
@@ -7144,10 +7178,10 @@
       </c>
       <c r="J18" s="101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L18" s="102" t="s">
         <v>22</v>
@@ -18098,7 +18132,7 @@
   <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18244,4 +18278,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C496566-5FB2-4946-8770-9A1528F7BA8A}">
+  <dimension ref="B1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="114">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/temp/ALP-2020.xlsx
+++ b/temp/ALP-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspaces\files-cdn\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE734D78-17EB-43ED-BAC3-928DC174F59C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0A95C-7CA2-4E58-A2BA-3F4202D86F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="181">
   <si>
     <t>Course Name</t>
   </si>
@@ -489,100 +489,172 @@
     <t>Deadlines This Week</t>
   </si>
   <si>
+    <t>✖</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Microservices</t>
+  </si>
+  <si>
+    <t>DSA Book Chapter --&gt; HackerRank Topic</t>
+  </si>
+  <si>
+    <t>Java Notes and Bookmarks</t>
+  </si>
+  <si>
+    <t>Spring Notes and Bookmarks</t>
+  </si>
+  <si>
+    <t>Sorting 10.1</t>
+  </si>
+  <si>
+    <t>Sorting 10.2</t>
+  </si>
+  <si>
+    <t>Sorting 10.3</t>
+  </si>
+  <si>
+    <t>Sorting 10.4</t>
+  </si>
+  <si>
+    <t>Sorting 10.5</t>
+  </si>
+  <si>
+    <t>Sorting 10.6</t>
+  </si>
+  <si>
+    <t>Sorting 10.7</t>
+  </si>
+  <si>
+    <t>Sorting 10.8</t>
+  </si>
+  <si>
+    <t>Sorting 10.9</t>
+  </si>
+  <si>
+    <t>Sorting 10.10</t>
+  </si>
+  <si>
+    <t>Sorting 10.11</t>
+  </si>
+  <si>
+    <t>Sorting 10.12</t>
+  </si>
+  <si>
+    <t>Sorting 10.13</t>
+  </si>
+  <si>
+    <t>Sorting 10.14</t>
+  </si>
+  <si>
+    <t>Sorting 10.15</t>
+  </si>
+  <si>
+    <t>Sorting 10.16</t>
+  </si>
+  <si>
+    <t>Sorting 10.17</t>
+  </si>
+  <si>
+    <t>Sorting 10.18</t>
+  </si>
+  <si>
+    <t>Sorting 10.19</t>
+  </si>
+  <si>
+    <t>Sorting 10.20</t>
+  </si>
+  <si>
+    <t>Searching 11.1</t>
+  </si>
+  <si>
+    <t>Searching 11.2</t>
+  </si>
+  <si>
+    <t>Searching 11.3</t>
+  </si>
+  <si>
+    <t>Searching 11.4</t>
+  </si>
+  <si>
+    <t>Searching 11.5</t>
+  </si>
+  <si>
+    <t>Searching 11.6</t>
+  </si>
+  <si>
+    <t>Searching 11.7</t>
+  </si>
+  <si>
+    <t>Searching 11.8</t>
+  </si>
+  <si>
+    <t>Searching 11.9</t>
+  </si>
+  <si>
+    <t>Searching 11.10</t>
+  </si>
+  <si>
+    <t>Searching 11.11</t>
+  </si>
+  <si>
+    <t>Bitwise 21</t>
+  </si>
+  <si>
+    <t>ADT 16</t>
+  </si>
+  <si>
+    <t>Symbol Table 13</t>
+  </si>
+  <si>
+    <t>Hashing 14</t>
+  </si>
+  <si>
+    <t>Asymptotic Analysis</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Heaps (Priority Q)</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Disjoint Sets ADT</t>
+  </si>
+  <si>
+    <t>String Algorithms</t>
+  </si>
+  <si>
+    <t>Selection Algorithms</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Divide n Conquer</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Interview Prep Kit (HackerRank)</t>
+  </si>
+  <si>
     <t>✔</t>
-  </si>
-  <si>
-    <t>✖</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Microservices</t>
-  </si>
-  <si>
-    <t>Kafka</t>
-  </si>
-  <si>
-    <t>Hibernate</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>Design Patterns</t>
-  </si>
-  <si>
-    <t>DSA Book</t>
-  </si>
-  <si>
-    <t>Abdul Bari</t>
-  </si>
-  <si>
-    <t>my code school</t>
-  </si>
-  <si>
-    <t>DSA Book Chapter --&gt; HackerRank Topic</t>
-  </si>
-  <si>
-    <t>Java Threading</t>
-  </si>
-  <si>
-    <t>Java 8</t>
-  </si>
-  <si>
-    <t>Annotations</t>
-  </si>
-  <si>
-    <t>Regex</t>
-  </si>
-  <si>
-    <t>Reflection</t>
-  </si>
-  <si>
-    <t>Spring Core</t>
-  </si>
-  <si>
-    <t>Spring AOP</t>
-  </si>
-  <si>
-    <t>Spring MVC</t>
-  </si>
-  <si>
-    <t>Spring REST</t>
-  </si>
-  <si>
-    <t>Spring Boot</t>
-  </si>
-  <si>
-    <t>Spring Data</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 25</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 50</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 75</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 100</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 125</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 150</t>
-  </si>
-  <si>
-    <t>Java Bookmarks 175</t>
-  </si>
-  <si>
-    <t>Java Notes and Bookmarks</t>
-  </si>
-  <si>
-    <t>Spring Notes and Bookmarks</t>
   </si>
 </sst>
 </file>
@@ -595,7 +667,7 @@
     <numFmt numFmtId="166" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="167" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;Overdue&quot;"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -849,8 +921,15 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="4"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1002,8 +1081,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1484,19 +1569,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF248851"/>
-      </top>
-      <bottom style="dotted">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dotted">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
@@ -1617,7 +1689,7 @@
     </xf>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1829,11 +1901,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1869,11 +1937,31 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="44" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="43" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1934,27 +2022,43 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="42" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1962,20 +2066,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="20" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="20" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="20" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2015,6 +2117,12 @@
     <xf numFmtId="0" fontId="24" fillId="19" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
@@ -2084,7 +2192,7 @@
     <cellStyle name="Title 3" xfId="24" xr:uid="{A2191916-F69B-4126-9A33-C1ADE48F76A0}"/>
     <cellStyle name="Title 4" xfId="27" xr:uid="{A857FE3C-F4FC-48BB-85F4-E88AEBE74528}"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="173">
     <dxf>
       <fill>
         <patternFill>
@@ -2506,6 +2614,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2520,6 +2635,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2534,6 +2656,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2548,6 +2677,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2562,6 +2698,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2576,6 +2719,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2590,6 +2740,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2604,6 +2761,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2625,6 +2789,20 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFE5F3E9"/>
@@ -2632,6 +2810,20 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFE5F3E9"/>
@@ -2639,6 +2831,20 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFE5F3E9"/>
@@ -2646,6 +2852,20 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFE5F3E9"/>
@@ -2653,6 +2873,132 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF3F752B"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFE5F3E9"/>
@@ -2667,46 +3013,39 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF3F752B"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE5F3E9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3097,17 +3436,17 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Movie List" pivot="0" count="3" xr9:uid="{4BA40043-EF4C-4ACF-9629-DA3D423964A3}">
-      <tableStyleElement type="headerRow" dxfId="139"/>
-      <tableStyleElement type="firstRowStripe" dxfId="138"/>
-      <tableStyleElement type="secondRowStripe" dxfId="137"/>
+      <tableStyleElement type="headerRow" dxfId="172"/>
+      <tableStyleElement type="firstRowStripe" dxfId="171"/>
+      <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
     <tableStyle name="To Do List" pivot="0" count="3" xr9:uid="{0275F2EF-7ED0-40A8-B1C2-7D29C94D149D}">
-      <tableStyleElement type="wholeTable" dxfId="136"/>
-      <tableStyleElement type="headerRow" dxfId="135"/>
-      <tableStyleElement type="secondRowStripe" dxfId="134"/>
+      <tableStyleElement type="wholeTable" dxfId="169"/>
+      <tableStyleElement type="headerRow" dxfId="168"/>
+      <tableStyleElement type="secondRowStripe" dxfId="167"/>
     </tableStyle>
     <tableStyle name="To-Do List" pivot="0" count="1" xr9:uid="{F3904ECC-67AD-4EB4-B6B9-03C65BDB7C8D}">
-      <tableStyleElement type="wholeTable" dxfId="133"/>
+      <tableStyleElement type="wholeTable" dxfId="166"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7758,20 +8097,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282F1E10-A429-4606-964B-3DA9AC8A221F}">
   <dimension ref="A1:AP42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22:AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="59" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="59" customWidth="1"/>
-    <col min="3" max="16" width="4.44140625" style="97" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="97" customWidth="1"/>
-    <col min="18" max="39" width="4.44140625" style="97" customWidth="1"/>
+    <col min="3" max="16" width="4.44140625" style="96" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="96" customWidth="1"/>
+    <col min="18" max="39" width="4.44140625" style="96" customWidth="1"/>
     <col min="40" max="40" width="3.6640625" style="59" customWidth="1"/>
-    <col min="41" max="41" width="16.5546875" style="96" customWidth="1"/>
-    <col min="42" max="42" width="8.6640625" style="96" customWidth="1"/>
+    <col min="41" max="41" width="16.5546875" style="95" customWidth="1"/>
+    <col min="42" max="42" width="8.6640625" style="95" customWidth="1"/>
     <col min="43" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
@@ -7863,45 +8202,45 @@
       <c r="AP2" s="63"/>
     </row>
     <row r="3" spans="1:42" s="60" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
-      <c r="AK3" s="159"/>
-      <c r="AL3" s="159"/>
-      <c r="AM3" s="159"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
@@ -7920,21 +8259,21 @@
       <c r="N4" s="71"/>
       <c r="O4" s="72"/>
       <c r="P4" s="72"/>
-      <c r="Q4" s="160" t="s">
+      <c r="Q4" s="169" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="161">
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="170">
         <f ca="1">TODAY()-WEEKDAY(TODAY(),2)+1</f>
-        <v>44137</v>
-      </c>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
+        <v>44144</v>
+      </c>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170"/>
       <c r="AA4" s="72"/>
       <c r="AB4" s="72"/>
       <c r="AC4" s="72"/>
@@ -7999,49 +8338,49 @@
     <row r="6" spans="1:42" s="78" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="74"/>
       <c r="B6" s="75"/>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="164"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="173"/>
       <c r="N6" s="71"/>
       <c r="O6" s="72"/>
-      <c r="P6" s="162" t="s">
+      <c r="P6" s="171" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="164"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="173"/>
       <c r="AA6" s="72"/>
       <c r="AB6" s="72"/>
-      <c r="AC6" s="162" t="s">
+      <c r="AC6" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="163"/>
-      <c r="AL6" s="163"/>
-      <c r="AM6" s="164"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="172"/>
+      <c r="AF6" s="172"/>
+      <c r="AG6" s="172"/>
+      <c r="AH6" s="172"/>
+      <c r="AI6" s="172"/>
+      <c r="AJ6" s="172"/>
+      <c r="AK6" s="172"/>
+      <c r="AL6" s="172"/>
+      <c r="AM6" s="173"/>
       <c r="AN6" s="76"/>
       <c r="AO6" s="77"/>
       <c r="AP6" s="77"/>
@@ -8049,43 +8388,43 @@
     <row r="7" spans="1:42" s="82" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="62"/>
       <c r="B7" s="73"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="157"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="166"/>
       <c r="N7" s="79"/>
       <c r="O7" s="80"/>
       <c r="P7" s="81"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="122"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="126"/>
       <c r="AA7" s="80"/>
       <c r="AB7" s="80"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="156"/>
-      <c r="AE7" s="156"/>
-      <c r="AF7" s="156"/>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="156"/>
-      <c r="AI7" s="156"/>
-      <c r="AJ7" s="156"/>
-      <c r="AK7" s="156"/>
-      <c r="AL7" s="156"/>
-      <c r="AM7" s="157"/>
+      <c r="AC7" s="164"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="165"/>
+      <c r="AM7" s="166"/>
       <c r="AN7" s="73"/>
       <c r="AO7" s="62"/>
       <c r="AP7" s="62"/>
@@ -8093,49 +8432,51 @@
     <row r="8" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="70"/>
-      <c r="C8" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="151"/>
+      <c r="C8" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="158"/>
       <c r="N8" s="83"/>
       <c r="O8" s="84"/>
       <c r="P8" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q8" s="127" t="s">
-        <v>155</v>
-      </c>
-      <c r="R8" s="127"/>
-      <c r="S8" s="127"/>
-      <c r="T8" s="127"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="127"/>
-      <c r="Y8" s="127"/>
-      <c r="Z8" s="128"/>
+        <v>125</v>
+      </c>
+      <c r="Q8" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="131"/>
+      <c r="U8" s="131"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="131"/>
+      <c r="X8" s="131"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="132"/>
       <c r="AA8" s="84"/>
       <c r="AB8" s="84"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="150"/>
-      <c r="AJ8" s="150"/>
-      <c r="AK8" s="150"/>
-      <c r="AL8" s="150"/>
-      <c r="AM8" s="151"/>
+      <c r="AC8" s="156" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="157"/>
+      <c r="AJ8" s="157"/>
+      <c r="AK8" s="157"/>
+      <c r="AL8" s="157"/>
+      <c r="AM8" s="158"/>
       <c r="AN8" s="73"/>
       <c r="AO8" s="62"/>
       <c r="AP8" s="62"/>
@@ -8143,47 +8484,47 @@
     <row r="9" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
       <c r="B9" s="70"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="151"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="158"/>
       <c r="N9" s="83"/>
       <c r="O9" s="84"/>
       <c r="P9" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="127" t="s">
-        <v>156</v>
-      </c>
-      <c r="R9" s="127"/>
-      <c r="S9" s="127"/>
-      <c r="T9" s="127"/>
-      <c r="U9" s="127"/>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
-      <c r="X9" s="127"/>
-      <c r="Y9" s="127"/>
-      <c r="Z9" s="128"/>
+        <v>125</v>
+      </c>
+      <c r="Q9" s="131" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="131"/>
+      <c r="Z9" s="132"/>
       <c r="AA9" s="84"/>
       <c r="AB9" s="84"/>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="151"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="157"/>
+      <c r="AI9" s="157"/>
+      <c r="AJ9" s="157"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="157"/>
+      <c r="AM9" s="158"/>
       <c r="AN9" s="73"/>
       <c r="AO9" s="62"/>
       <c r="AP9" s="62"/>
@@ -8191,47 +8532,47 @@
     <row r="10" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="70"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="151"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="158"/>
       <c r="N10" s="83"/>
       <c r="O10" s="84"/>
       <c r="P10" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="127" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="128"/>
+        <v>125</v>
+      </c>
+      <c r="Q10" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="R10" s="131"/>
+      <c r="S10" s="131"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="132"/>
       <c r="AA10" s="84"/>
       <c r="AB10" s="84"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="150"/>
-      <c r="AL10" s="150"/>
-      <c r="AM10" s="151"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="157"/>
+      <c r="AI10" s="157"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="157"/>
+      <c r="AL10" s="157"/>
+      <c r="AM10" s="158"/>
       <c r="AN10" s="73"/>
       <c r="AO10" s="62"/>
       <c r="AP10" s="62"/>
@@ -8239,43 +8580,43 @@
     <row r="11" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
       <c r="B11" s="70"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="151"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="158"/>
       <c r="N11" s="83"/>
       <c r="O11" s="84"/>
       <c r="P11" s="85"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="127"/>
-      <c r="S11" s="127"/>
-      <c r="T11" s="127"/>
-      <c r="U11" s="127"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="127"/>
-      <c r="Z11" s="128"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="132"/>
       <c r="AA11" s="84"/>
       <c r="AB11" s="84"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="150"/>
-      <c r="AL11" s="150"/>
-      <c r="AM11" s="151"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="157"/>
+      <c r="AH11" s="157"/>
+      <c r="AI11" s="157"/>
+      <c r="AJ11" s="157"/>
+      <c r="AK11" s="157"/>
+      <c r="AL11" s="157"/>
+      <c r="AM11" s="158"/>
       <c r="AN11" s="73"/>
       <c r="AO11" s="62"/>
       <c r="AP11" s="62"/>
@@ -8283,43 +8624,43 @@
     <row r="12" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="60"/>
       <c r="B12" s="70"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="154"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="161"/>
       <c r="N12" s="83"/>
       <c r="O12" s="84"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="131"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="134"/>
+      <c r="T12" s="134"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="135"/>
       <c r="AA12" s="84"/>
       <c r="AB12" s="84"/>
-      <c r="AC12" s="152"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="153"/>
-      <c r="AK12" s="153"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="154"/>
+      <c r="AC12" s="159"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="160"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="161"/>
       <c r="AN12" s="73"/>
       <c r="AO12" s="62"/>
       <c r="AP12" s="62"/>
@@ -8415,84 +8756,84 @@
     <row r="15" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
       <c r="B15" s="70"/>
-      <c r="C15" s="144" t="str">
+      <c r="C15" s="151" t="str">
         <f ca="1">TEXT(StartDate+0,"dd")</f>
-        <v>02</v>
-      </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="141" t="str">
+        <v>09</v>
+      </c>
+      <c r="D15" s="152"/>
+      <c r="E15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+0,"aaaa"))</f>
         <v>Monday</v>
       </c>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="139" t="str">
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="148" t="str">
         <f ca="1">TEXT(StartDate+1,"dd")</f>
-        <v>03</v>
-      </c>
-      <c r="J15" s="139"/>
-      <c r="K15" s="141" t="str">
+        <v>10</v>
+      </c>
+      <c r="J15" s="148"/>
+      <c r="K15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+1,"aaaa"))</f>
         <v>Tuesday</v>
       </c>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="139" t="str">
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="148" t="str">
         <f ca="1">TEXT(StartDate+2,"dd")</f>
-        <v>04</v>
-      </c>
-      <c r="O15" s="139"/>
-      <c r="P15" s="141" t="str">
+        <v>11</v>
+      </c>
+      <c r="O15" s="148"/>
+      <c r="P15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+2,"aaaa"))</f>
         <v>Wednesday</v>
       </c>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="139" t="str">
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="148" t="str">
         <f ca="1">TEXT(StartDate+3,"dd")</f>
-        <v>05</v>
-      </c>
-      <c r="T15" s="139"/>
-      <c r="U15" s="141" t="str">
+        <v>12</v>
+      </c>
+      <c r="T15" s="148"/>
+      <c r="U15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+3,"aaaa"))</f>
         <v>Thursday</v>
       </c>
-      <c r="V15" s="141"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="139" t="str">
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="148" t="str">
         <f ca="1">TEXT(StartDate+4,"dd")</f>
-        <v>06</v>
-      </c>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="141" t="str">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+4,"aaaa"))</f>
         <v>Friday</v>
       </c>
-      <c r="AA15" s="141"/>
-      <c r="AB15" s="141"/>
-      <c r="AC15" s="139" t="str">
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="148" t="str">
         <f ca="1">TEXT(StartDate+5,"dd")</f>
-        <v>07</v>
-      </c>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="141" t="str">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+5,"aaaa"))</f>
         <v>Saturday</v>
       </c>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="139" t="str">
+      <c r="AF15" s="147"/>
+      <c r="AG15" s="147"/>
+      <c r="AH15" s="148" t="str">
         <f ca="1">TEXT(StartDate+6,"dd")</f>
-        <v>08</v>
-      </c>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="141" t="str">
+        <v>15</v>
+      </c>
+      <c r="AI15" s="148"/>
+      <c r="AJ15" s="147" t="str">
         <f ca="1">(TEXT(StartDate+6,"aaaa"))</f>
         <v>Sunday</v>
       </c>
-      <c r="AK15" s="141"/>
-      <c r="AL15" s="141"/>
+      <c r="AK15" s="147"/>
+      <c r="AL15" s="147"/>
       <c r="AM15" s="88"/>
       <c r="AN15" s="73"/>
       <c r="AO15" s="62"/>
@@ -8501,63 +8842,63 @@
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="60"/>
       <c r="B16" s="70"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="142" t="str">
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+0,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="142" t="str">
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+1,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="142" t="str">
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+2,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="142" t="str">
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+3,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="142" t="str">
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+4,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="140"/>
-      <c r="AD16" s="140"/>
-      <c r="AE16" s="142" t="str">
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+5,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="142"/>
-      <c r="AH16" s="140"/>
-      <c r="AI16" s="140"/>
-      <c r="AJ16" s="142" t="str">
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="162" t="str">
         <f ca="1">(TEXT(StartDate+6,"mmmm"))</f>
         <v>November</v>
       </c>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="142"/>
+      <c r="AK16" s="162"/>
+      <c r="AL16" s="162"/>
       <c r="AM16" s="89"/>
       <c r="AN16" s="73"/>
       <c r="AO16" s="62"/>
@@ -8567,66 +8908,62 @@
       <c r="A17" s="60"/>
       <c r="B17" s="70"/>
       <c r="C17" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="137" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
+      <c r="J17" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
       <c r="N17" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="O17" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="P17" s="137"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="137"/>
+        <v>125</v>
+      </c>
+      <c r="O17" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="150"/>
       <c r="S17" s="91"/>
-      <c r="T17" s="137"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="137"/>
-      <c r="W17" s="137"/>
-      <c r="X17" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y17" s="137" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z17" s="137"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
-      <c r="AC17" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD17" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="137"/>
-      <c r="AH17" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI17" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="137"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="138"/>
+      <c r="T17" s="117" t="s">
+        <v>175</v>
+      </c>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="91"/>
+      <c r="Y17" s="117" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z17" s="117"/>
+      <c r="AA17" s="117"/>
+      <c r="AB17" s="117"/>
+      <c r="AC17" s="91"/>
+      <c r="AD17" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="91"/>
+      <c r="AI17" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ17" s="117"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="118"/>
       <c r="AN17" s="73"/>
       <c r="AO17" s="62"/>
       <c r="AP17" s="62"/>
@@ -8635,62 +8972,54 @@
       <c r="A18" s="60"/>
       <c r="B18" s="70"/>
       <c r="C18" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="132" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="O18" s="132" t="s">
-        <v>143</v>
-      </c>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
+      <c r="J18" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
       <c r="S18" s="92"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
+      <c r="T18" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
       <c r="X18" s="92"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD18" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE18" s="132"/>
-      <c r="AF18" s="132"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI18" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ18" s="132"/>
-      <c r="AK18" s="132"/>
-      <c r="AL18" s="132"/>
-      <c r="AM18" s="133"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="117"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="117"/>
+      <c r="AE18" s="117"/>
+      <c r="AF18" s="117"/>
+      <c r="AG18" s="117"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="117"/>
+      <c r="AJ18" s="117"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="118"/>
       <c r="AN18" s="73"/>
       <c r="AO18" s="62"/>
       <c r="AP18" s="62"/>
@@ -8699,62 +9028,46 @@
       <c r="A19" s="60"/>
       <c r="B19" s="70"/>
       <c r="C19" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="132" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" s="132" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
+        <v>180</v>
+      </c>
+      <c r="D19" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
       <c r="S19" s="92"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
       <c r="X19" s="92"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD19" s="132" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE19" s="132"/>
-      <c r="AF19" s="132"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI19" s="132" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ19" s="132"/>
-      <c r="AK19" s="132"/>
-      <c r="AL19" s="132"/>
-      <c r="AM19" s="133"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="117"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="117"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="117"/>
+      <c r="AJ19" s="117"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="118"/>
       <c r="AN19" s="73"/>
       <c r="AO19" s="62"/>
       <c r="AP19" s="62"/>
@@ -8765,52 +9078,44 @@
       <c r="C20" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J20" s="132" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="O20" s="132" t="s">
-        <v>145</v>
-      </c>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
+      <c r="D20" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
       <c r="S20" s="92"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
       <c r="X20" s="92"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="117"/>
       <c r="AC20" s="92"/>
-      <c r="AD20" s="132"/>
-      <c r="AE20" s="132"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="132"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="117"/>
+      <c r="AG20" s="117"/>
       <c r="AH20" s="92"/>
-      <c r="AI20" s="132"/>
-      <c r="AJ20" s="132"/>
-      <c r="AK20" s="132"/>
-      <c r="AL20" s="132"/>
-      <c r="AM20" s="133"/>
+      <c r="AI20" s="117"/>
+      <c r="AJ20" s="117"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="118"/>
       <c r="AN20" s="73"/>
       <c r="AO20" s="62"/>
       <c r="AP20" s="62"/>
@@ -8821,52 +9126,44 @@
       <c r="C21" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="132" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="O21" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
+      <c r="D21" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
       <c r="S21" s="92"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
       <c r="X21" s="92"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-      <c r="AB21" s="132"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="117"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="117"/>
       <c r="AC21" s="92"/>
-      <c r="AD21" s="132"/>
-      <c r="AE21" s="132"/>
-      <c r="AF21" s="132"/>
-      <c r="AG21" s="132"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
+      <c r="AG21" s="117"/>
       <c r="AH21" s="92"/>
-      <c r="AI21" s="132"/>
-      <c r="AJ21" s="132"/>
-      <c r="AK21" s="132"/>
-      <c r="AL21" s="132"/>
-      <c r="AM21" s="133"/>
+      <c r="AI21" s="117"/>
+      <c r="AJ21" s="117"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="118"/>
       <c r="AN21" s="73"/>
       <c r="AO21" s="62"/>
       <c r="AP21" s="62"/>
@@ -8874,53 +9171,47 @@
     <row r="22" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="60"/>
       <c r="B22" s="70"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J22" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="O22" s="132" t="s">
-        <v>147</v>
-      </c>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
+      <c r="C22" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
       <c r="S22" s="92"/>
-      <c r="T22" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
       <c r="X22" s="92"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-      <c r="AB22" s="132"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="117"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="117"/>
       <c r="AC22" s="92"/>
-      <c r="AD22" s="132"/>
-      <c r="AE22" s="132"/>
-      <c r="AF22" s="132"/>
-      <c r="AG22" s="132"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="117"/>
+      <c r="AG22" s="117"/>
       <c r="AH22" s="92"/>
-      <c r="AI22" s="132"/>
-      <c r="AJ22" s="132"/>
-      <c r="AK22" s="132"/>
-      <c r="AL22" s="132"/>
-      <c r="AM22" s="133"/>
+      <c r="AI22" s="117"/>
+      <c r="AJ22" s="117"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="118"/>
       <c r="AN22" s="73"/>
       <c r="AO22" s="62"/>
       <c r="AP22" s="62"/>
@@ -8928,49 +9219,47 @@
     <row r="23" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="60"/>
       <c r="B23" s="70"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
+      <c r="C23" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
       <c r="N23" s="92"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
       <c r="S23" s="92"/>
-      <c r="T23" s="132" t="s">
-        <v>131</v>
-      </c>
-      <c r="U23" s="132"/>
-      <c r="V23" s="132"/>
-      <c r="W23" s="132"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
       <c r="X23" s="92"/>
-      <c r="Y23" s="132"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="132"/>
-      <c r="AB23" s="132"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="117"/>
+      <c r="AA23" s="117"/>
+      <c r="AB23" s="117"/>
       <c r="AC23" s="92"/>
-      <c r="AD23" s="132"/>
-      <c r="AE23" s="132"/>
-      <c r="AF23" s="132"/>
-      <c r="AG23" s="132"/>
+      <c r="AD23" s="117"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="117"/>
+      <c r="AG23" s="117"/>
       <c r="AH23" s="92"/>
-      <c r="AI23" s="132"/>
-      <c r="AJ23" s="132"/>
-      <c r="AK23" s="132"/>
-      <c r="AL23" s="132"/>
-      <c r="AM23" s="133"/>
+      <c r="AI23" s="117"/>
+      <c r="AJ23" s="117"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="117"/>
+      <c r="AM23" s="118"/>
       <c r="AN23" s="73"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
@@ -8978,45 +9267,47 @@
     <row r="24" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="70"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
+      <c r="C24" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
       <c r="I24" s="92"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
       <c r="N24" s="92"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
       <c r="S24" s="92"/>
-      <c r="T24" s="132" t="s">
-        <v>132</v>
-      </c>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
       <c r="X24" s="92"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="132"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="117"/>
+      <c r="AB24" s="117"/>
       <c r="AC24" s="92"/>
-      <c r="AD24" s="132"/>
-      <c r="AE24" s="132"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="132"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="117"/>
+      <c r="AG24" s="117"/>
       <c r="AH24" s="92"/>
-      <c r="AI24" s="132"/>
-      <c r="AJ24" s="132"/>
-      <c r="AK24" s="132"/>
-      <c r="AL24" s="132"/>
-      <c r="AM24" s="133"/>
+      <c r="AI24" s="117"/>
+      <c r="AJ24" s="117"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="118"/>
       <c r="AN24" s="73"/>
       <c r="AO24" s="62"/>
       <c r="AP24" s="62"/>
@@ -9025,44 +9316,42 @@
       <c r="A25" s="60"/>
       <c r="B25" s="70"/>
       <c r="C25" s="85"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
       <c r="I25" s="92"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
       <c r="N25" s="92"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
       <c r="S25" s="92"/>
-      <c r="T25" s="132" t="s">
-        <v>129</v>
-      </c>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
       <c r="X25" s="92"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-      <c r="AB25" s="132"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
       <c r="AC25" s="92"/>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="132"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="132"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="117"/>
+      <c r="AG25" s="117"/>
       <c r="AH25" s="92"/>
-      <c r="AI25" s="132"/>
-      <c r="AJ25" s="132"/>
-      <c r="AK25" s="132"/>
-      <c r="AL25" s="132"/>
-      <c r="AM25" s="133"/>
+      <c r="AI25" s="117"/>
+      <c r="AJ25" s="117"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="118"/>
       <c r="AN25" s="73"/>
       <c r="AO25" s="62"/>
       <c r="AP25" s="62"/>
@@ -9070,43 +9359,61 @@
     <row r="26" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="60"/>
       <c r="B26" s="70"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-      <c r="AB26" s="132"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="132"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="132"/>
-      <c r="AJ26" s="132"/>
-      <c r="AK26" s="132"/>
-      <c r="AL26" s="132"/>
-      <c r="AM26" s="133"/>
+      <c r="C26" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="117" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="J26" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="143" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="143" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE26" s="143"/>
+      <c r="AF26" s="143"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ26" s="143"/>
+      <c r="AK26" s="143"/>
+      <c r="AL26" s="143"/>
+      <c r="AM26" s="144"/>
       <c r="AN26" s="73"/>
       <c r="AO26" s="62"/>
       <c r="AP26" s="62"/>
@@ -9114,43 +9421,61 @@
     <row r="27" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="60"/>
       <c r="B27" s="70"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="132"/>
-      <c r="AF27" s="132"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="132"/>
-      <c r="AJ27" s="132"/>
-      <c r="AK27" s="132"/>
-      <c r="AL27" s="132"/>
-      <c r="AM27" s="133"/>
+      <c r="C27" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="143" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143"/>
+      <c r="AC27" s="116"/>
+      <c r="AD27" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE27" s="143"/>
+      <c r="AF27" s="143"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="143" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ27" s="143"/>
+      <c r="AK27" s="143"/>
+      <c r="AL27" s="143"/>
+      <c r="AM27" s="144"/>
       <c r="AN27" s="73"/>
       <c r="AO27" s="62"/>
       <c r="AP27" s="62"/>
@@ -9158,43 +9483,59 @@
     <row r="28" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="60"/>
       <c r="B28" s="70"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="132"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="133"/>
+      <c r="C28" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="143" t="s">
+        <v>142</v>
+      </c>
+      <c r="U28" s="143"/>
+      <c r="V28" s="143"/>
+      <c r="W28" s="143"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z28" s="143"/>
+      <c r="AA28" s="143"/>
+      <c r="AB28" s="143"/>
+      <c r="AC28" s="116"/>
+      <c r="AD28" s="143" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE28" s="143"/>
+      <c r="AF28" s="143"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="143"/>
+      <c r="AJ28" s="143"/>
+      <c r="AK28" s="143"/>
+      <c r="AL28" s="143"/>
+      <c r="AM28" s="144"/>
       <c r="AN28" s="73"/>
       <c r="AO28" s="62"/>
       <c r="AP28" s="62"/>
@@ -9202,43 +9543,55 @@
     <row r="29" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="60"/>
       <c r="B29" s="70"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="132"/>
-      <c r="AJ29" s="132"/>
-      <c r="AK29" s="132"/>
-      <c r="AL29" s="132"/>
-      <c r="AM29" s="133"/>
+      <c r="C29" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="138" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="138" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="138" t="s">
+        <v>160</v>
+      </c>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="138"/>
+      <c r="X29" s="114"/>
+      <c r="Y29" s="138"/>
+      <c r="Z29" s="138"/>
+      <c r="AA29" s="138"/>
+      <c r="AB29" s="138"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="138"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="114"/>
+      <c r="AI29" s="138"/>
+      <c r="AJ29" s="138"/>
+      <c r="AK29" s="138"/>
+      <c r="AL29" s="138"/>
+      <c r="AM29" s="139"/>
       <c r="AN29" s="73"/>
       <c r="AO29" s="62"/>
       <c r="AP29" s="62"/>
@@ -9246,43 +9599,55 @@
     <row r="30" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60"/>
       <c r="B30" s="70"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="134"/>
-      <c r="AK30" s="134"/>
-      <c r="AL30" s="134"/>
-      <c r="AM30" s="135"/>
+      <c r="C30" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="140" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="114" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="138" t="s">
+        <v>155</v>
+      </c>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="138" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="138"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="138"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="U30" s="138"/>
+      <c r="V30" s="138"/>
+      <c r="W30" s="138"/>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="141"/>
+      <c r="Z30" s="141"/>
+      <c r="AA30" s="141"/>
+      <c r="AB30" s="141"/>
+      <c r="AC30" s="114"/>
+      <c r="AD30" s="141"/>
+      <c r="AE30" s="141"/>
+      <c r="AF30" s="141"/>
+      <c r="AG30" s="141"/>
+      <c r="AH30" s="114"/>
+      <c r="AI30" s="141"/>
+      <c r="AJ30" s="141"/>
+      <c r="AK30" s="141"/>
+      <c r="AL30" s="141"/>
+      <c r="AM30" s="142"/>
       <c r="AN30" s="73"/>
       <c r="AO30" s="62"/>
       <c r="AP30" s="62"/>
@@ -9290,43 +9655,53 @@
     <row r="31" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="60"/>
       <c r="B31" s="70"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="115"/>
-      <c r="Z31" s="115"/>
-      <c r="AA31" s="115"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="115"/>
-      <c r="AE31" s="115"/>
-      <c r="AF31" s="115"/>
-      <c r="AG31" s="115"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="115"/>
-      <c r="AJ31" s="115"/>
-      <c r="AK31" s="115"/>
-      <c r="AL31" s="115"/>
-      <c r="AM31" s="116"/>
+      <c r="C31" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="115" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" s="137" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="137"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="115"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="119"/>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="119"/>
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="119"/>
+      <c r="AJ31" s="119"/>
+      <c r="AK31" s="119"/>
+      <c r="AL31" s="119"/>
+      <c r="AM31" s="120"/>
       <c r="AN31" s="73"/>
       <c r="AO31" s="62"/>
       <c r="AP31" s="62"/>
@@ -9422,133 +9797,133 @@
     <row r="34" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="60"/>
       <c r="B34" s="70"/>
-      <c r="C34" s="117" t="s">
-        <v>127</v>
-      </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="118"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="118"/>
-      <c r="AG34" s="118"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="118"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="119"/>
+      <c r="C34" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
+      <c r="W34" s="122"/>
+      <c r="X34" s="122"/>
+      <c r="Y34" s="122"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="122"/>
+      <c r="AB34" s="122"/>
+      <c r="AC34" s="122"/>
+      <c r="AD34" s="122"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="122"/>
+      <c r="AI34" s="122"/>
+      <c r="AJ34" s="122"/>
+      <c r="AK34" s="122"/>
+      <c r="AL34" s="122"/>
+      <c r="AM34" s="123"/>
       <c r="AN34" s="73"/>
       <c r="AO34" s="62"/>
       <c r="AP34" s="62"/>
     </row>
     <row r="35" spans="1:42" s="82" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="94"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="121"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="121"/>
-      <c r="AD35" s="121"/>
-      <c r="AE35" s="121"/>
-      <c r="AF35" s="121"/>
-      <c r="AG35" s="121"/>
-      <c r="AH35" s="121"/>
-      <c r="AI35" s="121"/>
-      <c r="AJ35" s="121"/>
-      <c r="AK35" s="121"/>
-      <c r="AL35" s="121"/>
-      <c r="AM35" s="122"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="125"/>
+      <c r="Y35" s="125"/>
+      <c r="Z35" s="125"/>
+      <c r="AA35" s="125"/>
+      <c r="AB35" s="125"/>
+      <c r="AC35" s="125"/>
+      <c r="AD35" s="125"/>
+      <c r="AE35" s="125"/>
+      <c r="AF35" s="125"/>
+      <c r="AG35" s="125"/>
+      <c r="AH35" s="125"/>
+      <c r="AI35" s="125"/>
+      <c r="AJ35" s="125"/>
+      <c r="AK35" s="125"/>
+      <c r="AL35" s="125"/>
+      <c r="AM35" s="126"/>
       <c r="AN35" s="73"/>
       <c r="AO35" s="62"/>
       <c r="AP35" s="62"/>
     </row>
     <row r="36" spans="1:42" s="82" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="94"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="124"/>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="124"/>
-      <c r="U36" s="124"/>
-      <c r="V36" s="124"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="124"/>
-      <c r="Y36" s="124"/>
-      <c r="Z36" s="124"/>
-      <c r="AA36" s="124"/>
-      <c r="AB36" s="124"/>
-      <c r="AC36" s="124"/>
-      <c r="AD36" s="124"/>
-      <c r="AE36" s="124"/>
-      <c r="AF36" s="124"/>
-      <c r="AG36" s="124"/>
-      <c r="AH36" s="124"/>
-      <c r="AI36" s="124"/>
-      <c r="AJ36" s="124"/>
-      <c r="AK36" s="124"/>
-      <c r="AL36" s="124"/>
-      <c r="AM36" s="125"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="128"/>
+      <c r="W36" s="128"/>
+      <c r="X36" s="128"/>
+      <c r="Y36" s="128"/>
+      <c r="Z36" s="128"/>
+      <c r="AA36" s="128"/>
+      <c r="AB36" s="128"/>
+      <c r="AC36" s="128"/>
+      <c r="AD36" s="128"/>
+      <c r="AE36" s="128"/>
+      <c r="AF36" s="128"/>
+      <c r="AG36" s="128"/>
+      <c r="AH36" s="128"/>
+      <c r="AI36" s="128"/>
+      <c r="AJ36" s="128"/>
+      <c r="AK36" s="128"/>
+      <c r="AL36" s="128"/>
+      <c r="AM36" s="129"/>
       <c r="AN36" s="73"/>
       <c r="AO36" s="62"/>
       <c r="AP36" s="62"/>
@@ -9556,43 +9931,43 @@
     <row r="37" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="60"/>
       <c r="B37" s="70"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="127"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="127"/>
-      <c r="W37" s="127"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="127"/>
-      <c r="AC37" s="127"/>
-      <c r="AD37" s="127"/>
-      <c r="AE37" s="127"/>
-      <c r="AF37" s="127"/>
-      <c r="AG37" s="127"/>
-      <c r="AH37" s="127"/>
-      <c r="AI37" s="127"/>
-      <c r="AJ37" s="127"/>
-      <c r="AK37" s="127"/>
-      <c r="AL37" s="127"/>
-      <c r="AM37" s="128"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="131"/>
+      <c r="M37" s="131"/>
+      <c r="N37" s="131"/>
+      <c r="O37" s="131"/>
+      <c r="P37" s="131"/>
+      <c r="Q37" s="131"/>
+      <c r="R37" s="131"/>
+      <c r="S37" s="131"/>
+      <c r="T37" s="131"/>
+      <c r="U37" s="131"/>
+      <c r="V37" s="131"/>
+      <c r="W37" s="131"/>
+      <c r="X37" s="131"/>
+      <c r="Y37" s="131"/>
+      <c r="Z37" s="131"/>
+      <c r="AA37" s="131"/>
+      <c r="AB37" s="131"/>
+      <c r="AC37" s="131"/>
+      <c r="AD37" s="131"/>
+      <c r="AE37" s="131"/>
+      <c r="AF37" s="131"/>
+      <c r="AG37" s="131"/>
+      <c r="AH37" s="131"/>
+      <c r="AI37" s="131"/>
+      <c r="AJ37" s="131"/>
+      <c r="AK37" s="131"/>
+      <c r="AL37" s="131"/>
+      <c r="AM37" s="132"/>
       <c r="AN37" s="73"/>
       <c r="AO37" s="62"/>
       <c r="AP37" s="62"/>
@@ -9600,43 +9975,43 @@
     <row r="38" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="60"/>
       <c r="B38" s="70"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="130"/>
-      <c r="O38" s="130"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="130"/>
-      <c r="S38" s="130"/>
-      <c r="T38" s="130"/>
-      <c r="U38" s="130"/>
-      <c r="V38" s="130"/>
-      <c r="W38" s="130"/>
-      <c r="X38" s="130"/>
-      <c r="Y38" s="130"/>
-      <c r="Z38" s="130"/>
-      <c r="AA38" s="130"/>
-      <c r="AB38" s="130"/>
-      <c r="AC38" s="130"/>
-      <c r="AD38" s="130"/>
-      <c r="AE38" s="130"/>
-      <c r="AF38" s="130"/>
-      <c r="AG38" s="130"/>
-      <c r="AH38" s="130"/>
-      <c r="AI38" s="130"/>
-      <c r="AJ38" s="130"/>
-      <c r="AK38" s="130"/>
-      <c r="AL38" s="130"/>
-      <c r="AM38" s="131"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="134"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="134"/>
+      <c r="S38" s="134"/>
+      <c r="T38" s="134"/>
+      <c r="U38" s="134"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="134"/>
+      <c r="X38" s="134"/>
+      <c r="Y38" s="134"/>
+      <c r="Z38" s="134"/>
+      <c r="AA38" s="134"/>
+      <c r="AB38" s="134"/>
+      <c r="AC38" s="134"/>
+      <c r="AD38" s="134"/>
+      <c r="AE38" s="134"/>
+      <c r="AF38" s="134"/>
+      <c r="AG38" s="134"/>
+      <c r="AH38" s="134"/>
+      <c r="AI38" s="134"/>
+      <c r="AJ38" s="134"/>
+      <c r="AK38" s="134"/>
+      <c r="AL38" s="134"/>
+      <c r="AM38" s="135"/>
       <c r="AN38" s="73"/>
       <c r="AO38" s="62"/>
       <c r="AP38" s="62"/>
@@ -9792,12 +10167,6 @@
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="Q8:Z8"/>
     <mergeCell ref="AC8:AM8"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="P15:R15"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="Q11:Z11"/>
     <mergeCell ref="AC11:AM11"/>
@@ -9819,48 +10188,66 @@
     <mergeCell ref="Z15:AB15"/>
     <mergeCell ref="AC15:AD16"/>
     <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AI17:AM17"/>
     <mergeCell ref="D18:H18"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="Y27:AB27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="J17:M17"/>
     <mergeCell ref="J18:M18"/>
-    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="T17:W17"/>
     <mergeCell ref="T18:W18"/>
+    <mergeCell ref="Y17:AB17"/>
     <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AI18:AM18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="P15:R15"/>
     <mergeCell ref="AI19:AM19"/>
     <mergeCell ref="D20:H20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J29:M29"/>
     <mergeCell ref="O20:R20"/>
-    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T29:W29"/>
     <mergeCell ref="Y20:AB20"/>
     <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="AI20:AM20"/>
     <mergeCell ref="D19:H19"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="Y28:AB28"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="J20:M20"/>
     <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
     <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AI27:AM27"/>
     <mergeCell ref="AI21:AM21"/>
     <mergeCell ref="D22:H22"/>
-    <mergeCell ref="J22:M22"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="T22:W22"/>
     <mergeCell ref="Y22:AB22"/>
     <mergeCell ref="AD22:AG22"/>
     <mergeCell ref="AI22:AM22"/>
     <mergeCell ref="D21:H21"/>
-    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J30:M30"/>
     <mergeCell ref="O21:R21"/>
-    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T30:W30"/>
     <mergeCell ref="Y21:AB21"/>
     <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AD25:AG25"/>
     <mergeCell ref="AI23:AM23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="J24:M24"/>
@@ -9875,6 +10262,38 @@
     <mergeCell ref="T23:W23"/>
     <mergeCell ref="Y23:AB23"/>
     <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="C37:AM37"/>
+    <mergeCell ref="C38:AM38"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="Y31:AB31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="AI29:AM29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="Y30:AB30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AI30:AM30"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="Y29:AB29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="AI17:AM17"/>
+    <mergeCell ref="AI18:AM18"/>
+    <mergeCell ref="AI31:AM31"/>
+    <mergeCell ref="C34:AM34"/>
+    <mergeCell ref="C35:AM35"/>
+    <mergeCell ref="C36:AM36"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="AI28:AM28"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="O27:R27"/>
     <mergeCell ref="AI25:AM25"/>
     <mergeCell ref="D26:H26"/>
     <mergeCell ref="J26:M26"/>
@@ -9885,456 +10304,577 @@
     <mergeCell ref="AI26:AM26"/>
     <mergeCell ref="D25:H25"/>
     <mergeCell ref="J25:M25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AI27:AM27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="Y28:AB28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AI28:AM28"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="Y27:AB27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AI29:AM29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="Y30:AB30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AI30:AM30"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="Y29:AB29"/>
-    <mergeCell ref="AD29:AG29"/>
-    <mergeCell ref="AI31:AM31"/>
-    <mergeCell ref="C34:AM34"/>
-    <mergeCell ref="C35:AM35"/>
-    <mergeCell ref="C36:AM36"/>
-    <mergeCell ref="C37:AM37"/>
-    <mergeCell ref="C38:AM38"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AD31:AG31"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12 J17:J31">
-    <cfRule type="cellIs" dxfId="132" priority="79" operator="equal">
+  <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12 J23:J25 T30 Y21:Y25 AD21:AD25 AH17:AH21 T22:T25 Y27:Y31 AD27:AD31 J27:J30 AH22:AI31 C17:D31">
+    <cfRule type="cellIs" dxfId="165" priority="130" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C17:D31 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12 J17:J31">
-    <cfRule type="cellIs" dxfId="131" priority="78" operator="equal">
+  <conditionalFormatting sqref="C6:C12 C15 E15:E16 O13:AM13 C1:AM1 C35:C38 C43:AM1048576 C4:AM5 O6:O12 AA6:AB12 J23:J25 T30 Y21:Y25 AD21:AD25 AH17:AH21 T22:T25 Y27:Y31 AD27:AD31 J27:J30 AH22:AI31 C17:D31">
+    <cfRule type="cellIs" dxfId="164" priority="129" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="130" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="110" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="109" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="128" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="102" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="cellIs" dxfId="127" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="101" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="126" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="106" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="cellIs" dxfId="125" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="105" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="124" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="104" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="cellIs" dxfId="123" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="103" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N13">
-    <cfRule type="cellIs" dxfId="122" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="128" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N13">
-    <cfRule type="cellIs" dxfId="121" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="127" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="cellIs" dxfId="120" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="113" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="119" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="126" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="118" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="125" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="117" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="124" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="cellIs" dxfId="116" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="123" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="115" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="122" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="cellIs" dxfId="114" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="121" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="113" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="120" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="112" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="119" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="111" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="118" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="110" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="117" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="109" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="116" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="108" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="115" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC7:AC12">
-    <cfRule type="cellIs" dxfId="107" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="114" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="106" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="112" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="cellIs" dxfId="105" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="111" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="104" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="108" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="103" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="107" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I31">
-    <cfRule type="cellIs" dxfId="102" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="81" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O31">
-    <cfRule type="cellIs" dxfId="101" priority="49" operator="equal">
+  <conditionalFormatting sqref="O23:O25">
+    <cfRule type="cellIs" dxfId="134" priority="100" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O31">
-    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
+  <conditionalFormatting sqref="O23:O25">
+    <cfRule type="cellIs" dxfId="133" priority="99" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T20 T26:T31">
-    <cfRule type="cellIs" dxfId="99" priority="47" operator="equal">
+  <conditionalFormatting sqref="T27:T31">
+    <cfRule type="cellIs" dxfId="132" priority="98" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T20 T26:T31">
-    <cfRule type="cellIs" dxfId="98" priority="46" operator="equal">
+  <conditionalFormatting sqref="T27:T31">
+    <cfRule type="cellIs" dxfId="131" priority="97" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17:Y31">
-    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
+  <conditionalFormatting sqref="AC17:AC31">
+    <cfRule type="cellIs" dxfId="130" priority="90" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17:Y31">
-    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
+  <conditionalFormatting sqref="AC17:AC31">
+    <cfRule type="cellIs" dxfId="129" priority="89" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD17:AD31">
-    <cfRule type="cellIs" dxfId="95" priority="43" operator="equal">
+  <conditionalFormatting sqref="X17:X31">
+    <cfRule type="cellIs" dxfId="128" priority="88" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD17:AD31">
-    <cfRule type="cellIs" dxfId="94" priority="42" operator="equal">
+  <conditionalFormatting sqref="X17:X31">
+    <cfRule type="cellIs" dxfId="127" priority="87" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH17:AI31">
-    <cfRule type="cellIs" dxfId="93" priority="41" operator="equal">
+  <conditionalFormatting sqref="S17:S31">
+    <cfRule type="cellIs" dxfId="126" priority="86" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH17:AI31">
-    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
+  <conditionalFormatting sqref="S17:S31">
+    <cfRule type="cellIs" dxfId="125" priority="85" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC17:AC31">
-    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
+  <conditionalFormatting sqref="N17:N31">
+    <cfRule type="cellIs" dxfId="124" priority="84" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC17:AC31">
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
+  <conditionalFormatting sqref="N17:N31">
+    <cfRule type="cellIs" dxfId="123" priority="83" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X31">
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
+  <conditionalFormatting sqref="I17:I31">
+    <cfRule type="cellIs" dxfId="122" priority="82" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X31">
-    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+  <conditionalFormatting sqref="C17:H31">
+    <cfRule type="expression" dxfId="121" priority="80">
+      <formula>StartDate+0=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I22 I23:M25 I27:M30 I26 I31">
+    <cfRule type="expression" dxfId="120" priority="79">
+      <formula>StartDate+1=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:R25 N17:N22 N26:N31 T30:W30 T22:W25">
+    <cfRule type="expression" dxfId="119" priority="78">
+      <formula>StartDate+2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:W31 S17:S26">
+    <cfRule type="expression" dxfId="118" priority="77">
+      <formula>StartDate+3=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21:AB25 X17:X20 X27:AB31 X26">
+    <cfRule type="expression" dxfId="117" priority="76">
+      <formula>StartDate+4=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC21:AG25 AC17:AC20 AC27:AG31 AC26">
+    <cfRule type="expression" dxfId="116" priority="75">
+      <formula>StartDate+5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17:AH21 AH22:AM31">
+    <cfRule type="expression" dxfId="115" priority="74">
+      <formula>StartDate+6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K16">
+    <cfRule type="cellIs" dxfId="114" priority="73" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K16">
+    <cfRule type="cellIs" dxfId="113" priority="72" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S31">
-    <cfRule type="cellIs" dxfId="87" priority="35" operator="equal">
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="112" priority="71" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:S31">
-    <cfRule type="cellIs" dxfId="86" priority="34" operator="equal">
+  <conditionalFormatting sqref="P15:P16">
+    <cfRule type="cellIs" dxfId="111" priority="70" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N31">
-    <cfRule type="cellIs" dxfId="85" priority="33" operator="equal">
+  <conditionalFormatting sqref="U15:U16">
+    <cfRule type="cellIs" dxfId="110" priority="69" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17:N31">
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+  <conditionalFormatting sqref="U15:U16">
+    <cfRule type="cellIs" dxfId="109" priority="68" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I31">
-    <cfRule type="cellIs" dxfId="83" priority="31" operator="equal">
+  <conditionalFormatting sqref="Z15:Z16">
+    <cfRule type="cellIs" dxfId="108" priority="67" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:H31">
-    <cfRule type="expression" dxfId="82" priority="29">
-      <formula>StartDate+0=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:M31">
-    <cfRule type="expression" dxfId="81" priority="28">
+  <conditionalFormatting sqref="Z15:Z16">
+    <cfRule type="cellIs" dxfId="107" priority="66" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15:AE16">
+    <cfRule type="cellIs" dxfId="106" priority="65" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15:AE16">
+    <cfRule type="cellIs" dxfId="105" priority="64" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
+    <cfRule type="cellIs" dxfId="104" priority="63" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
+    <cfRule type="cellIs" dxfId="103" priority="62" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="cellIs" dxfId="102" priority="61" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6">
+    <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="cellIs" dxfId="100" priority="59" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6">
+    <cfRule type="cellIs" dxfId="99" priority="58" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:O22">
+    <cfRule type="cellIs" dxfId="98" priority="57" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:O22">
+    <cfRule type="cellIs" dxfId="97" priority="56" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:R22">
+    <cfRule type="expression" dxfId="96" priority="55">
       <formula>StartDate+1=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:R31 N17:N22">
-    <cfRule type="expression" dxfId="80" priority="27">
+  <conditionalFormatting sqref="O27:O30">
+    <cfRule type="cellIs" dxfId="95" priority="51" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O30">
+    <cfRule type="cellIs" dxfId="94" priority="50" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:R30">
+    <cfRule type="expression" dxfId="93" priority="49">
+      <formula>StartDate+1=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26">
+    <cfRule type="cellIs" dxfId="91" priority="47" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:R26">
+    <cfRule type="expression" dxfId="90" priority="46">
       <formula>StartDate+2=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:W20 S26:W31 S21:S25">
-    <cfRule type="expression" dxfId="79" priority="26">
+  <conditionalFormatting sqref="O31">
+    <cfRule type="cellIs" dxfId="89" priority="39" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31:R31">
+    <cfRule type="expression" dxfId="87" priority="37">
       <formula>StartDate+3=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:AB31">
-    <cfRule type="expression" dxfId="78" priority="25">
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="cellIs" dxfId="85" priority="35" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:M21">
+    <cfRule type="expression" dxfId="84" priority="34">
+      <formula>StartDate+3=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J18 J22">
+    <cfRule type="cellIs" dxfId="83" priority="33" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J18 J22">
+    <cfRule type="cellIs" dxfId="82" priority="32" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:M18 J22:M22">
+    <cfRule type="expression" dxfId="81" priority="31">
+      <formula>StartDate+2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:T21">
+    <cfRule type="cellIs" dxfId="80" priority="30" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:T21">
+    <cfRule type="cellIs" dxfId="79" priority="29" operator="equal">
+      <formula>"✔"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:W21">
+    <cfRule type="expression" dxfId="78" priority="28">
       <formula>StartDate+4=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC17:AG31">
-    <cfRule type="expression" dxfId="77" priority="24">
-      <formula>StartDate+5=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH17:AM31">
-    <cfRule type="expression" dxfId="76" priority="23">
-      <formula>StartDate+6=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K16">
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="equal">
+  <conditionalFormatting sqref="Y17:Y20">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K16">
-    <cfRule type="cellIs" dxfId="74" priority="21" operator="equal">
+  <conditionalFormatting sqref="Y17:Y20">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
+  <conditionalFormatting sqref="Y17:AB20">
+    <cfRule type="expression" dxfId="75" priority="25">
+      <formula>StartDate+4=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD17:AD20">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P16">
-    <cfRule type="cellIs" dxfId="72" priority="19" operator="equal">
+  <conditionalFormatting sqref="AD17:AD20">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15:U16">
+  <conditionalFormatting sqref="AD17:AG20">
+    <cfRule type="expression" dxfId="72" priority="22">
+      <formula>StartDate+4=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI17:AI21">
     <cfRule type="cellIs" dxfId="71" priority="18" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15:U16">
+  <conditionalFormatting sqref="AI17:AI21">
     <cfRule type="cellIs" dxfId="70" priority="17" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
+  <conditionalFormatting sqref="AI17:AM21">
+    <cfRule type="expression" dxfId="69" priority="16">
+      <formula>StartDate+6=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="cellIs" dxfId="68" priority="15" operator="equal">
+  <conditionalFormatting sqref="T26">
+    <cfRule type="cellIs" dxfId="67" priority="14" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15:AE16">
-    <cfRule type="cellIs" dxfId="67" priority="14" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE15:AE16">
-    <cfRule type="cellIs" dxfId="66" priority="13" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
+  <conditionalFormatting sqref="T26:W26">
+    <cfRule type="expression" dxfId="66" priority="13">
+      <formula>StartDate+2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26">
     <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15:AJ16 AM15:AM16">
+  <conditionalFormatting sqref="Y26">
     <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="63" priority="10" operator="equal">
+  <conditionalFormatting sqref="Y26:AB26">
+    <cfRule type="expression" dxfId="63" priority="10">
+      <formula>StartDate+2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD26">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="cellIs" dxfId="62" priority="9" operator="equal">
+  <conditionalFormatting sqref="AD26">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
-      <formula>"✖"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC6">
-    <cfRule type="cellIs" dxfId="60" priority="7" operator="equal">
-      <formula>"✔"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O22">
+  <conditionalFormatting sqref="AD26:AG26">
+    <cfRule type="expression" dxfId="60" priority="7">
+      <formula>StartDate+2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:O22">
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:R22">
+  <conditionalFormatting sqref="J26:M26">
     <cfRule type="expression" dxfId="57" priority="4">
-      <formula>StartDate+1=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T25">
+      <formula>StartDate+2=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T25">
+  <conditionalFormatting sqref="J31">
     <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"✔"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:W25">
+  <conditionalFormatting sqref="J31:M31">
     <cfRule type="expression" dxfId="54" priority="1">
-      <formula>StartDate+2=TODAY()</formula>
+      <formula>StartDate+3=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Weekly Schedule Planner" prompt="Stay on track with your goals – personal, workrelated, or to-do items, deadlines with this weekly planner._x000a__x000a_Use week calendar layout to track additional goals &amp; priorities list on the side. _x000a__x000a_Calendar Highlights today date through Conditional formatting." sqref="A1" xr:uid="{0477B67E-D02A-448A-BB11-B015F4C7C362}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Week Start Date in this Cell" sqref="V4:Z4" xr:uid="{39AA786D-315C-4E6A-9BD9-B991F876DCA7}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C31 P7:P12 S17:S31 X17:X31 AC17:AC31 N17:N31 AH17:AH31 I17:I31" xr:uid="{C63B4EFD-CAB9-4264-9384-DEA8CCCE3DCE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17:I31 P7:P12 S17:S31 X17:X31 AC17:AC31 N17:N31 AH17:AH31 C17:C31" xr:uid="{C63B4EFD-CAB9-4264-9384-DEA8CCCE3DCE}">
       <formula1>"✔,✖"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10342,8 +10882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CAFD19-B19C-4DCB-8111-13912A3BF581}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10595,48 +11135,48 @@
       <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="98">
+      <c r="A6" s="97">
         <v>5</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="97">
         <v>140</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="98">
         <v>239</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="98">
         <v>8</v>
       </c>
-      <c r="F6" s="100">
+      <c r="F6" s="99">
         <f t="shared" si="0"/>
         <v>31.866666666666667</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="100">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="101">
         <f t="shared" si="4"/>
         <v>44176</v>
       </c>
-      <c r="I6" s="102">
+      <c r="I6" s="101">
         <f t="shared" si="2"/>
         <v>44186</v>
       </c>
-      <c r="J6" s="103">
+      <c r="J6" s="102">
         <f t="shared" si="5"/>
         <v>58.577405857740587</v>
       </c>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="104">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -10686,7 +11226,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N7" s="106"/>
+      <c r="N7" s="105"/>
       <c r="O7">
         <f>SUM(D7:D20)</f>
         <v>69</v>
@@ -10736,7 +11276,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N8" s="106"/>
+      <c r="N8" s="105"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
@@ -10782,7 +11322,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N9" s="106"/>
+      <c r="N9" s="105"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="42">
@@ -10828,7 +11368,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N10" s="106"/>
+      <c r="N10" s="105"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
@@ -10873,7 +11413,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N11" s="106"/>
+      <c r="N11" s="105"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="42">
@@ -10919,7 +11459,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N12" s="106"/>
+      <c r="N12" s="105"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
@@ -10964,7 +11504,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N13" s="106"/>
+      <c r="N13" s="105"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
@@ -11009,7 +11549,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N14" s="106"/>
+      <c r="N14" s="105"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
@@ -11054,7 +11594,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N15" s="106"/>
+      <c r="N15" s="105"/>
     </row>
     <row r="16" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
@@ -11099,7 +11639,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N16" s="107"/>
+      <c r="N16" s="106"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
@@ -11144,7 +11684,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N17" s="106"/>
+      <c r="N17" s="105"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
@@ -11190,7 +11730,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N18" s="106"/>
+      <c r="N18" s="105"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
@@ -11235,53 +11775,53 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N19" s="106"/>
+      <c r="N19" s="105"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="98">
+      <c r="A20" s="97">
         <v>23</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="97">
         <v>0</v>
       </c>
-      <c r="D20" s="99">
+      <c r="D20" s="98">
         <v>4</v>
       </c>
-      <c r="E20" s="99">
+      <c r="E20" s="98">
         <v>30</v>
       </c>
-      <c r="F20" s="100">
+      <c r="F20" s="99">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G20" s="101">
+      <c r="G20" s="100">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="101">
         <f t="shared" si="6"/>
         <v>44200</v>
       </c>
-      <c r="I20" s="102">
+      <c r="I20" s="101">
         <f t="shared" si="2"/>
         <v>44200</v>
       </c>
-      <c r="J20" s="103">
+      <c r="J20" s="102">
         <f t="shared" ref="J20:J45" si="7">100*C20/D20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="99" t="s">
+      <c r="K20" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="104"/>
-      <c r="M20" s="105">
+      <c r="L20" s="103"/>
+      <c r="M20" s="104">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N20" s="108"/>
+      <c r="N20" s="107"/>
       <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -11330,7 +11870,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N21" s="109"/>
+      <c r="N21" s="108"/>
       <c r="O21">
         <f>SUM(D21:D31)</f>
         <v>122</v>
@@ -11382,7 +11922,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N22" s="109"/>
+      <c r="N22" s="108"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
@@ -11430,7 +11970,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N23" s="109"/>
+      <c r="N23" s="108"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
@@ -11478,7 +12018,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N24" s="109"/>
+      <c r="N24" s="108"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
@@ -11526,7 +12066,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N25" s="109"/>
+      <c r="N25" s="108"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
@@ -11574,7 +12114,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N26" s="109"/>
+      <c r="N26" s="108"/>
       <c r="O26" s="19"/>
     </row>
     <row r="27" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -11623,7 +12163,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N27" s="110"/>
+      <c r="N27" s="109"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
@@ -11671,7 +12211,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N28" s="109"/>
+      <c r="N28" s="108"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
@@ -11719,7 +12259,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N29" s="109"/>
+      <c r="N29" s="108"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
@@ -11767,55 +12307,55 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="N30" s="109"/>
+      <c r="N30" s="108"/>
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="98">
+      <c r="A31" s="97">
         <v>34</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="97">
         <v>0</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D31" s="98">
         <v>53</v>
       </c>
-      <c r="E31" s="99">
+      <c r="E31" s="98">
         <v>30</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="99">
         <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
-      <c r="G31" s="101">
+      <c r="G31" s="100">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H31" s="102">
+      <c r="H31" s="101">
         <f t="shared" si="6"/>
         <v>44216</v>
       </c>
-      <c r="I31" s="102">
+      <c r="I31" s="101">
         <f t="shared" si="2"/>
         <v>44224</v>
       </c>
-      <c r="J31" s="103">
+      <c r="J31" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K31" s="99" t="s">
+      <c r="K31" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="104" t="s">
+      <c r="L31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="105">
+      <c r="M31" s="104">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N31" s="111"/>
+      <c r="N31" s="110"/>
       <c r="O31" s="19"/>
     </row>
     <row r="32" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -11864,7 +12404,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N32" s="112"/>
+      <c r="N32" s="111"/>
       <c r="O32">
         <f>+SUM(D32:D45)</f>
         <v>443</v>
@@ -11916,7 +12456,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N33" s="112"/>
+      <c r="N33" s="111"/>
     </row>
     <row r="34" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
@@ -11964,7 +12504,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N34" s="112"/>
+      <c r="N34" s="111"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
@@ -12012,7 +12552,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N35" s="112"/>
+      <c r="N35" s="111"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
@@ -12060,7 +12600,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N36" s="112"/>
+      <c r="N36" s="111"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
@@ -12108,7 +12648,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N37" s="112"/>
+      <c r="N37" s="111"/>
     </row>
     <row r="38" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42">
@@ -12156,7 +12696,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N38" s="112"/>
+      <c r="N38" s="111"/>
     </row>
     <row r="39" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42">
@@ -12204,7 +12744,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N39" s="112"/>
+      <c r="N39" s="111"/>
     </row>
     <row r="40" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="42">
@@ -12252,7 +12792,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N40" s="112"/>
+      <c r="N40" s="111"/>
       <c r="O40" s="19"/>
     </row>
     <row r="41" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -12301,7 +12841,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N41" s="113"/>
+      <c r="N41" s="112"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="42">
@@ -12349,7 +12889,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N42" s="112"/>
+      <c r="N42" s="111"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="42">
@@ -12397,7 +12937,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N43" s="112"/>
+      <c r="N43" s="111"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="42">
@@ -12445,55 +12985,55 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="N44" s="112"/>
+      <c r="N44" s="111"/>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="98">
+      <c r="A45" s="97">
         <v>48</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="98">
+      <c r="C45" s="97">
         <v>0</v>
       </c>
-      <c r="D45" s="99">
+      <c r="D45" s="98">
         <v>66</v>
       </c>
-      <c r="E45" s="99">
+      <c r="E45" s="98">
         <v>30</v>
       </c>
-      <c r="F45" s="100">
+      <c r="F45" s="99">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G45" s="101">
+      <c r="G45" s="100">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H45" s="102">
+      <c r="H45" s="101">
         <f t="shared" si="6"/>
         <v>44292</v>
       </c>
-      <c r="I45" s="102">
+      <c r="I45" s="101">
         <f t="shared" si="2"/>
         <v>44302</v>
       </c>
-      <c r="J45" s="103">
+      <c r="J45" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K45" s="99" t="s">
+      <c r="K45" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="104" t="s">
+      <c r="L45" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="M45" s="105">
+      <c r="M45" s="104">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="N45" s="114"/>
+      <c r="N45" s="113"/>
       <c r="O45" s="19"/>
     </row>
     <row r="46" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
